--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_120.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_120.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32607-d250120-Reviews-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>156</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Lancaster-Hotels-Comfort-Inn-Suites-Lancaster.h876939.Hotel-Information?chkin=6%2F18%2F2018&amp;chkout=6%2F19%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528079541348&amp;cancellable=false&amp;regionId=6056584&amp;vip=false&amp;c=ab171025-ee82-4ac1-a3b8-4afa221025a4&amp;mctc=9&amp;exp_dp=95.2&amp;exp_ts=1528079541875&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_120.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_120.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="719">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2041 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r573893076-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>32607</t>
+  </si>
+  <si>
+    <t>250120</t>
+  </si>
+  <si>
+    <t>573893076</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subpar </t>
+  </si>
+  <si>
+    <t>Hotel currently renovating but they’re only replacing carpet. The food was just ok. My room/suite had huge hole in curtain. The workout room was closed. If you just need place to lay head then it’ll get the job done.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Hotel currently renovating but they’re only replacing carpet. The food was just ok. My room/suite had huge hole in curtain. The workout room was closed. If you just need place to lay head then it’ll get the job done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r560299890-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>560299890</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Good Stay, Good Breakfast</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights while on vacation. Rooms were clean, modern, breakfast was and personally attended by the cook at all times. Centrally located on the main drag and near Xway. Would stay again. Main floor was being remodeled at the time but has elevators to upper floors.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r550515700-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>550515700</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>For whats its worth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For what it is worth despite the fact they were renovating this place. They where painting the halls on the third floor and re-tiling the floors on the first floor my visit was comfortable. I heard other guests complain about the renovations, happening however I'm still satisfied about my stay. My only suggestion is to put more wifi repeaters throughout the hotel, the room I stayed in had weak signal. </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r536693355-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>536693355</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Will stay here again</t>
+  </si>
+  <si>
+    <t>This was so convenient. The Airport Shuttle drops you off from LAX. We reserved a room so it was waiting for us. The beds were super comfy and it is very quiet considering Hwy 14 is nearby. Marie Calendars is within walking distance down the road if you need lunch or dinner. The hotel breakfast included, was beyond my expectations with eggs, sausage, potatoes, oatmeal, etc. etc. to choose from. The staff were all very nice and helpful.  This is our go-to hotel when traveling out of LAX or if for some reason we need to be in the Lancaster-Palmdate area for more than the day. You can't beat this for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was so convenient. The Airport Shuttle drops you off from LAX. We reserved a room so it was waiting for us. The beds were super comfy and it is very quiet considering Hwy 14 is nearby. Marie Calendars is within walking distance down the road if you need lunch or dinner. The hotel breakfast included, was beyond my expectations with eggs, sausage, potatoes, oatmeal, etc. etc. to choose from. The staff were all very nice and helpful.  This is our go-to hotel when traveling out of LAX or if for some reason we need to be in the Lancaster-Palmdate area for more than the day. You can't beat this for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r532029140-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>532029140</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Large group of us stayed here in September on a Tuesday night as we had a tour of Edward's Air Force Base scheduled for 9 a.m. Wednesday morning.  Staff very friendly and helpful.  Had to have our room keys redone twice.  The place was clean, and very conveniently located by freeway.  Went walking early in the morning and felt relatively safe walking around the block.  Lot's of other hotels in the area.  The equipment in the small gym does not work though which was a disappointment but I was able to walk. They did have set up in the lobby area dispensers which cold lemon water and cold lemonade - complementary which was a very nice touch.  Some fresh cookies would have added to that.  The breakfast room is small and average.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Large group of us stayed here in September on a Tuesday night as we had a tour of Edward's Air Force Base scheduled for 9 a.m. Wednesday morning.  Staff very friendly and helpful.  Had to have our room keys redone twice.  The place was clean, and very conveniently located by freeway.  Went walking early in the morning and felt relatively safe walking around the block.  Lot's of other hotels in the area.  The equipment in the small gym does not work though which was a disappointment but I was able to walk. They did have set up in the lobby area dispensers which cold lemon water and cold lemonade - complementary which was a very nice touch.  Some fresh cookies would have added to that.  The breakfast room is small and average.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r530274733-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>530274733</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean &amp; quiet room.  Reasonable priced.  Breakfast was not included.If you wanted breakfast, it was an additional cost.  Not bad considering that youspend just as much or more if you went out to eat.  My compliments to Jackie, she took care of the breakfast room.  Did a great job.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded October 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2017</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean &amp; quiet room.  Reasonable priced.  Breakfast was not included.If you wanted breakfast, it was an additional cost.  Not bad considering that youspend just as much or more if you went out to eat.  My compliments to Jackie, she took care of the breakfast room.  Did a great job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r517582454-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>517582454</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just ok! </t>
+  </si>
+  <si>
+    <t>I choose this hotel because was the cheaper one available late on night! The price was high but I understand why..because all area in Lancaster was full. The property looks kinda dirty in the back parking lot,many homeless people was closer to the parking lot.I didn't sleep that well because I always have to check my car by the window.the room looks good ,but had hair and smell like "pee" from dog or cat.I reported at the desk but they just spray with air freshener ....still not enough.Next time I will be aware what room I will have,deffinelly not pet room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r500330757-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>500330757</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Will come again</t>
+  </si>
+  <si>
+    <t>I just recently stayed there have to say the beds are comfortable the rooms are spacious very clean the staff were wonderful in getting anything and everything we needed help with. Our room was clean when we asked I believe I remember her name as Lisa Marie she was awesome the room was clean neat and she did everything we asked her to do very friendly and she really knows what she's doing because of her I will be returningMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Guest_relations2k, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>I just recently stayed there have to say the beds are comfortable the rooms are spacious very clean the staff were wonderful in getting anything and everything we needed help with. Our room was clean when we asked I believe I remember her name as Lisa Marie she was awesome the room was clean neat and she did everything we asked her to do very friendly and she really knows what she's doing because of her I will be returningMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r497705312-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>497705312</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>A place to sleep and that's all</t>
+  </si>
+  <si>
+    <t>The staff was friendly and professional but the room could have been better. In order to conserve water you are asked to use your towels for three days. This a high desert area but if they are concerned about conservation  they should not have located here. Their concern for the use of water could explain the large dirty spots on the carpet. The use of electronic devices is apparently discouraged too as the telephone was inoperative and the free wifi was spotty at best. When I called on my cell to see if something could be done about the wifi I was given a 1-800 number which was no help. Lastly, I guess it is company policy to have an air conditioner that is loud since we ran into this problem before. We are done with this chain. MoreShow less</t>
+  </si>
+  <si>
+    <t>Guest_relations2k, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>The staff was friendly and professional but the room could have been better. In order to conserve water you are asked to use your towels for three days. This a high desert area but if they are concerned about conservation  they should not have located here. Their concern for the use of water could explain the large dirty spots on the carpet. The use of electronic devices is apparently discouraged too as the telephone was inoperative and the free wifi was spotty at best. When I called on my cell to see if something could be done about the wifi I was given a 1-800 number which was no help. Lastly, I guess it is company policy to have an air conditioner that is loud since we ran into this problem before. We are done with this chain. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r491634803-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>491634803</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>In need of updating</t>
+  </si>
+  <si>
+    <t>The room is large and the bed is comfortable. Too bad the chairs in the front lobby have tears in them (they all do), the carpets in the hall and the rooms are stained, and the elevator has seen better days.  It really is sub-par for a Comfort Inn. And the guy who took my reservation told me that the property had been updated. Not sure if we were talking about the same place.The lady at the front desk was very pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>The room is large and the bed is comfortable. Too bad the chairs in the front lobby have tears in them (they all do), the carpets in the hall and the rooms are stained, and the elevator has seen better days.  It really is sub-par for a Comfort Inn. And the guy who took my reservation told me that the property had been updated. Not sure if we were talking about the same place.The lady at the front desk was very pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r487421285-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>487421285</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Would stay here again</t>
+  </si>
+  <si>
+    <t>Stayed in Jefferson Room. Very nice 2 room suite with gas fireplace and balcony. Wish we could have stayed several nights. Didn't have an opportunity to really enjoy the room. Good breakfast. Internet kept dropping and came right back up. Notified front desk manager about internet. Good bed covers, not the lightweight flimsy things other Choice hotels are calling blankets. Recommendations: put light near couch as there isn't an overhead light.   Put larger TV monitors on walk in both rooms. Current monitors are small for room size.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Stayed in Jefferson Room. Very nice 2 room suite with gas fireplace and balcony. Wish we could have stayed several nights. Didn't have an opportunity to really enjoy the room. Good breakfast. Internet kept dropping and came right back up. Notified front desk manager about internet. Good bed covers, not the lightweight flimsy things other Choice hotels are calling blankets. Recommendations: put light near couch as there isn't an overhead light.   Put larger TV monitors on walk in both rooms. Current monitors are small for room size.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r483539105-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>483539105</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay!!!</t>
+  </si>
+  <si>
+    <t>Loved this place! Great bed, pretty tile floor, nice amenities. Very nice staff &amp; service! They are about to remodel the whole hotel soo, can't wait to see that. Yes, the wallpaper was old, however, who really cares! Great bed, nice air conditioning, what more is there to want... Internet was a little slow as well. Can't wait to come visit this hotel again... Yelp reviews were bad, but not as recent &amp; I loved our stay! Give it a chance! You'll be glad you did...:)MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Loved this place! Great bed, pretty tile floor, nice amenities. Very nice staff &amp; service! They are about to remodel the whole hotel soo, can't wait to see that. Yes, the wallpaper was old, however, who really cares! Great bed, nice air conditioning, what more is there to want... Internet was a little slow as well. Can't wait to come visit this hotel again... Yelp reviews were bad, but not as recent &amp; I loved our stay! Give it a chance! You'll be glad you did...:)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r475686867-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>475686867</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hospitality from all we encountered at the Comfort Inn and Suites: Lancaster CA</t>
+  </si>
+  <si>
+    <t>My dad, sister and I stayed at this hotel for a week while sight-seeing and visiting family in the Lancaster area.  We were super impressed with the friendliness and efficiency of all the entire staff:  What a GREAT VALUE!  We were very surprised of the amazing breakfast provided. best I've seen during my travels.  Lisa was kind enough to give us to tickets to the Opening Day of the local Jethawks baseball game and we had a blast.  Everyone was so nice and accomadating.  When staying in Lancaster CA...I would definitely select Comfort Inn and Suites again and again.  KUDOS  to then entire staff for such an AMAZING STAY....Thanx so much...The Ohio girls, Denise and Sherry and their Dad..Tom............MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>My dad, sister and I stayed at this hotel for a week while sight-seeing and visiting family in the Lancaster area.  We were super impressed with the friendliness and efficiency of all the entire staff:  What a GREAT VALUE!  We were very surprised of the amazing breakfast provided. best I've seen during my travels.  Lisa was kind enough to give us to tickets to the Opening Day of the local Jethawks baseball game and we had a blast.  Everyone was so nice and accomadating.  When staying in Lancaster CA...I would definitely select Comfort Inn and Suites again and again.  KUDOS  to then entire staff for such an AMAZING STAY....Thanx so much...The Ohio girls, Denise and Sherry and their Dad..Tom............More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r471535085-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>471535085</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Very pleasant and competent front desk</t>
+  </si>
+  <si>
+    <t>I really wanted to love this hotel.  The front desk was wonderful. The room was clean.  The beds were comfortable.  Breakfast was very good.  But...the reading lamp was missing both its bulbs;  the sink had hot and cold reversed--especially bad because the hot water is scalding; the robe hook was missing in the bathroom; the curtain was torn; and the WiFi was useless.  The front desk was great but where was maintenance?MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>I really wanted to love this hotel.  The front desk was wonderful. The room was clean.  The beds were comfortable.  Breakfast was very good.  But...the reading lamp was missing both its bulbs;  the sink had hot and cold reversed--especially bad because the hot water is scalding; the robe hook was missing in the bathroom; the curtain was torn; and the WiFi was useless.  The front desk was great but where was maintenance?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r470720367-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>470720367</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Decent Stay</t>
+  </si>
+  <si>
+    <t>Stayed here twice. First time was a regular room. It wasn't bad, and had a comfy bed. The second time was in a suite. The suites are def nicer. The wifi is overall spotty at best and kept kicking off my devices. The ac in the rooms are turned off so the rooms are a bit hot upon arrival and takes a bit to cool down. Peter at the front desk is quite nice and makes sure each guest feels welcome. The hotel does offer a free hot breakfast and continental breakfast, both were quite good, just don't talk to the lady running the running room as she would rather sit on her phone. Wifi kind of makes this place a deal breaker for a business person, overall good stayMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Stayed here twice. First time was a regular room. It wasn't bad, and had a comfy bed. The second time was in a suite. The suites are def nicer. The wifi is overall spotty at best and kept kicking off my devices. The ac in the rooms are turned off so the rooms are a bit hot upon arrival and takes a bit to cool down. Peter at the front desk is quite nice and makes sure each guest feels welcome. The hotel does offer a free hot breakfast and continental breakfast, both were quite good, just don't talk to the lady running the running room as she would rather sit on her phone. Wifi kind of makes this place a deal breaker for a business person, overall good stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r456193675-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>456193675</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>Nice but expensive</t>
+  </si>
+  <si>
+    <t>Very nice hotel that is well maintained.  Our room was clean, the staff was friendly and super nice.  We were able to get a late check out which was very helpful.  I felt it was a little pricey and they didn't offer a military discount.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel that is well maintained.  Our room was clean, the staff was friendly and super nice.  We were able to get a late check out which was very helpful.  I felt it was a little pricey and they didn't offer a military discount.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r448934216-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>448934216</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanksgiving </t>
+  </si>
+  <si>
+    <t>No one likes being in a hotel on thanksgiving with your kids. We had no choice this year. Lisa from the front dest made THANKSGIVING dinner for the whole hotel. It was so nice. She went above and beyond to make it feel like home. The rooms were clean and beds were great... MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2017</t>
+  </si>
+  <si>
+    <t>No one likes being in a hotel on thanksgiving with your kids. We had no choice this year. Lisa from the front dest made THANKSGIVING dinner for the whole hotel. It was so nice. She went above and beyond to make it feel like home. The rooms were clean and beds were great... More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r442142118-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>442142118</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>The good and the bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Being in the antelope valley, remember it can get quite windy. The hotel is located conveniently next to the freeway and several restaurants almost walking distance. Nice stay. Just watch out for those extra fees like security boxes $1.50 a day that may be a hassle to remove and you end up absorbing as personal expense. Check your bill. </t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r436386400-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>436386400</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t>Comfortable - of course!</t>
+  </si>
+  <si>
+    <t>The Comfort Inn is an attractive lodging choice in Lancaster. Visible from the highway, but not as easy to find (thank you, Apple Maps!). We've stayed here before and we're back again.Reception was very friendly and there's an elevator to all 3 floors. Rooms are spacious and well appointed. Everything works, except the shower curtain (design flaw- as people hang towels on it, it sags and then the shower curtain slides down to the center).The refrigerator could have used a bigger (and separate) freezer, but it's OK.The big shortcoming was the awful WiFi. Bad last year and not any better this year. There is an option to plug ethernet right into your computer and next year I'll bring a cord and try this.We've used the pool in the past (spa is nice and hot, pool this time of the year is "brisk") but not this year.Good breakfast with hot and cold eggs and breakfast meat. Good coffee!We'll be back (with an ethernet cord).MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>The Comfort Inn is an attractive lodging choice in Lancaster. Visible from the highway, but not as easy to find (thank you, Apple Maps!). We've stayed here before and we're back again.Reception was very friendly and there's an elevator to all 3 floors. Rooms are spacious and well appointed. Everything works, except the shower curtain (design flaw- as people hang towels on it, it sags and then the shower curtain slides down to the center).The refrigerator could have used a bigger (and separate) freezer, but it's OK.The big shortcoming was the awful WiFi. Bad last year and not any better this year. There is an option to plug ethernet right into your computer and next year I'll bring a cord and try this.We've used the pool in the past (spa is nice and hot, pool this time of the year is "brisk") but not this year.Good breakfast with hot and cold eggs and breakfast meat. Good coffee!We'll be back (with an ethernet cord).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r436189128-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>436189128</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Going the extra mile customer service</t>
+  </si>
+  <si>
+    <t>Thank you Jessica! Upon checking in I was very road  weary, and in need of sleep. Jessica assisted me in a rapid check in. And for honoring that I'm a travel nurse at local hospital. Great cozy beds, rooms clean and smoke free.Great location!Thanks for assisting me in my extension and customer service above and beyond! Greatly appreciated!Rhedah Ingram RN MoreShow less</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Thank you Jessica! Upon checking in I was very road  weary, and in need of sleep. Jessica assisted me in a rapid check in. And for honoring that I'm a travel nurse at local hospital. Great cozy beds, rooms clean and smoke free.Great location!Thanks for assisting me in my extension and customer service above and beyond! Greatly appreciated!Rhedah Ingram RN More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r432830219-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>432830219</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>A great stay!</t>
+  </si>
+  <si>
+    <t>I had a great stay at the comfort inn. Great room with a comfortable bed and a nice clean shower, i would recommend this hotel to my friends and colleges as i travel. Lisa was the standout of the staff she did an excellent job!MoreShow less</t>
+  </si>
+  <si>
+    <t>gm_ca824, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>I had a great stay at the comfort inn. Great room with a comfortable bed and a nice clean shower, i would recommend this hotel to my friends and colleges as i travel. Lisa was the standout of the staff she did an excellent job!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r430078143-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>430078143</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>Professional and courteous staff!</t>
+  </si>
+  <si>
+    <t>I called this hotel looking for pet-friendly accommodations. My experience over the phone was quite lovely.  I found Ms.Jessica professional, very friendly, courteous and helpful.  She was approachable and interested.  Good service, responsive and genuine staff persons make this hotel very special.MoreShow less</t>
+  </si>
+  <si>
+    <t>I called this hotel looking for pet-friendly accommodations. My experience over the phone was quite lovely.  I found Ms.Jessica professional, very friendly, courteous and helpful.  She was approachable and interested.  Good service, responsive and genuine staff persons make this hotel very special.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r419985344-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>419985344</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Very Nice, Friendly Staff, Rooms a bit Dated but OK</t>
+  </si>
+  <si>
+    <t>Staff here is wonderful - so friendly and helpful!! Rooms are OK for a short stay and the breakfast is nice. Convenient location - short drive to freeway and restaurants. Would stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Staff here is wonderful - so friendly and helpful!! Rooms are OK for a short stay and the breakfast is nice. Convenient location - short drive to freeway and restaurants. Would stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r419160935-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>419160935</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>AWESOME suite/Local to EVERYTHING</t>
+  </si>
+  <si>
+    <t>I traveled with my 15 year old daughter &amp; 6 year old son for a reunion. The suite was spacious, just perfect, close to the back stairs and pool. I love how the bedroom had a door to close off for privacy. Plenty of towels and blankets.TV in the bedroom and living area. Microwave and Mini Fridge. We were local to everything. We did not take advantage of the breakfast (slept in late) or the pool (busy at the reunion) but both looked great. Check in/Check out was seamless.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>gm_ca824, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded September 23, 2016</t>
+  </si>
+  <si>
+    <t>I traveled with my 15 year old daughter &amp; 6 year old son for a reunion. The suite was spacious, just perfect, close to the back stairs and pool. I love how the bedroom had a door to close off for privacy. Plenty of towels and blankets.TV in the bedroom and living area. Microwave and Mini Fridge. We were local to everything. We did not take advantage of the breakfast (slept in late) or the pool (busy at the reunion) but both looked great. Check in/Check out was seamless.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r403647073-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>403647073</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Solid if Not Spectacular</t>
+  </si>
+  <si>
+    <t>Good location. Ask for a room on the West end to avoid freeway noise. Have a pool and spa along with a hot breakfast including waffles. Rooms are very large. Free parking and wi-fi. Have stayed multiple times and they are always consistently good with clean rooms. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>gm_ca824, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Good location. Ask for a room on the West end to avoid freeway noise. Have a pool and spa along with a hot breakfast including waffles. Rooms are very large. Free parking and wi-fi. Have stayed multiple times and they are always consistently good with clean rooms. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r399756830-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>399756830</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Best HOTEL EVER</t>
+  </si>
+  <si>
+    <t>We stayed here on a busy weekend for a soccer tournament and When Esther checked us in, she made sure we had all the information we needed for the busy weekend. From Food to Entertainment she made sure that we had all of our information. She even made sure we has all of the extra towels and pillows that we needed. Thank you Esther for making our stay one to remember.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guest_relations2k, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here on a busy weekend for a soccer tournament and When Esther checked us in, she made sure we had all the information we needed for the busy weekend. From Food to Entertainment she made sure that we had all of our information. She even made sure we has all of the extra towels and pillows that we needed. Thank you Esther for making our stay one to remember.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r396991789-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>396991789</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Comfort Inn - Lancaster</t>
+  </si>
+  <si>
+    <t>Friendly staffs with comfortable room for a night stay on business trip. There's free wifi, mini-ref, microwave oven and nice flat screen TV. Good location and short distance from the freeway. I didn't notice restaurants near the area even though there are other motels and hotels nearby. Good restaurants are about 5 miles away at Antelope Valley Mall. Looks like a place for contractors to stay. Free breakfast but not much that pleased me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly staffs with comfortable room for a night stay on business trip. There's free wifi, mini-ref, microwave oven and nice flat screen TV. Good location and short distance from the freeway. I didn't notice restaurants near the area even though there are other motels and hotels nearby. Good restaurants are about 5 miles away at Antelope Valley Mall. Looks like a place for contractors to stay. Free breakfast but not much that pleased me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r394663677-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>394663677</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>GREAT SERVICE!</t>
+  </si>
+  <si>
+    <t>I always enjoy staying here during my quarterly business trips, this place rocks!  they have an awesome continental breakfast, super friendly staff and a house keeping crew that goes above and beyond their customers needs! one in particular who always makes sure I have everything I need, like the day I ran out of towels OMG.. she came to my rescue with no delays..  THANK YOU CYNTHIA!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I always enjoy staying here during my quarterly business trips, this place rocks!  they have an awesome continental breakfast, super friendly staff and a house keeping crew that goes above and beyond their customers needs! one in particular who always makes sure I have everything I need, like the day I ran out of towels OMG.. she came to my rescue with no delays..  THANK YOU CYNTHIA!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r394525051-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>394525051</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent </t>
+  </si>
+  <si>
+    <t>Clean, well appointed, friendly and helpful staff. A lot of variety at breakfast such as eggs, potatoes, sausage patties, waffles, fruit, yogurt, hot oatmeal, cold cereal and the typical bread, muffins, coffee and extras.  We had the King bed for the same price as two queens. Lots of room, adjustable shower head, quiet motel which I would definitely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean, well appointed, friendly and helpful staff. A lot of variety at breakfast such as eggs, potatoes, sausage patties, waffles, fruit, yogurt, hot oatmeal, cold cereal and the typical bread, muffins, coffee and extras.  We had the King bed for the same price as two queens. Lots of room, adjustable shower head, quiet motel which I would definitely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r393362479-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>393362479</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Hotel </t>
+  </si>
+  <si>
+    <t>This is a Very clean and well put together. My house keeper cynthia was well mannered and gave excellent service very respectful. I recommend this hotel to all my friends and family. I will be returing here in the future. Breakfast was very good. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a Very clean and well put together. My house keeper cynthia was well mannered and gave excellent service very respectful. I recommend this hotel to all my friends and family. I will be returing here in the future. Breakfast was very good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r350278694-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>350278694</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>Nice room, clean and good location</t>
+  </si>
+  <si>
+    <t>This is a nice hotel. The rooms were large and very clean and the bed was super comfy. I slept great. There was plenty of counter space in the bathroom and there were outlets where you want them. The breakfast was the standard fare but was also nicely done. We will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Guest_relations2k, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>This is a nice hotel. The rooms were large and very clean and the bed was super comfy. I slept great. There was plenty of counter space in the bathroom and there were outlets where you want them. The breakfast was the standard fare but was also nicely done. We will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r345934301-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>345934301</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Always a nice, relaxing stay.....</t>
+  </si>
+  <si>
+    <t>I stay at this hotel every now and then and I always have a nice, relaxing, comfortable time. It's always quiet and the staff is always friendly and helpful! I would definitely recommend this hotel to my friends and family or anyone looking for a nice place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Guest_relations2k, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded February 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2016</t>
+  </si>
+  <si>
+    <t>I stay at this hotel every now and then and I always have a nice, relaxing, comfortable time. It's always quiet and the staff is always friendly and helpful! I would definitely recommend this hotel to my friends and family or anyone looking for a nice place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r341664479-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>341664479</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Visitor in a new land</t>
+  </si>
+  <si>
+    <t>Hello,I recently had the pleasure of staying at the Comfort Inn in Lancaster, California, My Check in was an experience in its own,I was happily greeted upon arrival,informed of all the Inns amenities, Breakfast from 6AM to 9AM,weight room,jacuzzi,dry sauna,where the elevators and ice machine were at,then explained where exactly my room was,how many times have we all been even shown on a map where are room was and ALWAYS got lost in the North Forty somewhere! I found my room easy enough, WOW! What a nice comfortable room,everything was there I needed,there were even plenty of Electric plug in for all my gizmos n gadgets. The bathroom and overall appearance was pleasing and above all Clean and modern,the tv was great and the control worked easily for this Weary Traveler,  my room came with a microwave and mini refrigerator for all my goodies and they worked! Ooooooooo Aaaaaahh! I slept like a baby,Quiet and my Serta Mattress was beyond cozy and comfortable ,I hated having to get up,now here is something I found really cool,How many times have we all gotten up in the middle of the night and tripped and stumbled our way to the bathroom?We All Have, Now my friends the people at The Comfort Inn in Lancaster California have a Nite light built into the outside vanity electrical outlet adjacent to the bathroom  with plenty of shampoo,conditioner and hand cream ,then even in the bathroom itself...Hello,I recently had the pleasure of staying at the Comfort Inn in Lancaster, California, My Check in was an experience in its own,I was happily greeted upon arrival,informed of all the Inns amenities, Breakfast from 6AM to 9AM,weight room,jacuzzi,dry sauna,where the elevators and ice machine were at,then explained where exactly my room was,how many times have we all been even shown on a map where are room was and ALWAYS got lost in the North Forty somewhere! I found my room easy enough, WOW! What a nice comfortable room,everything was there I needed,there were even plenty of Electric plug in for all my gizmos n gadgets. The bathroom and overall appearance was pleasing and above all Clean and modern,the tv was great and the control worked easily for this Weary Traveler,  my room came with a microwave and mini refrigerator for all my goodies and they worked! Ooooooooo Aaaaaahh! I slept like a baby,Quiet and my Serta Mattress was beyond cozy and comfortable ,I hated having to get up,now here is something I found really cool,How many times have we all gotten up in the middle of the night and tripped and stumbled our way to the bathroom?We All Have, Now my friends the people at The Comfort Inn in Lancaster California have a Nite light built into the outside vanity electrical outlet adjacent to the bathroom  with plenty of shampoo,conditioner and hand cream ,then even in the bathroom itself there's a built in nite lite,That is so cool n smart .The breakfast was Great and All the staff were kind and courteous and made you feel at home not like you were imposing on them,there were plenty of brochures of local attractions in the surrounding locals.So if your ever in the area or even passing through Beautiful Lancaster California, Please stay at the  Beautiful ,modern Comfort Inn it is centrally located close to the 14 freeway  remember to Exit Avenue J,right at the Valero gas station it's located on the right side of the street and (you don't have to use map quest to find it)and it's close by the local Harley Davidson Dealership right Next Door!! And an abundance of restaurants, stores and local businesses to make your stay as Comfortable as The Comfort Inn, see you soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guest_relations2k, Public Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded January 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2016</t>
+  </si>
+  <si>
+    <t>Hello,I recently had the pleasure of staying at the Comfort Inn in Lancaster, California, My Check in was an experience in its own,I was happily greeted upon arrival,informed of all the Inns amenities, Breakfast from 6AM to 9AM,weight room,jacuzzi,dry sauna,where the elevators and ice machine were at,then explained where exactly my room was,how many times have we all been even shown on a map where are room was and ALWAYS got lost in the North Forty somewhere! I found my room easy enough, WOW! What a nice comfortable room,everything was there I needed,there were even plenty of Electric plug in for all my gizmos n gadgets. The bathroom and overall appearance was pleasing and above all Clean and modern,the tv was great and the control worked easily for this Weary Traveler,  my room came with a microwave and mini refrigerator for all my goodies and they worked! Ooooooooo Aaaaaahh! I slept like a baby,Quiet and my Serta Mattress was beyond cozy and comfortable ,I hated having to get up,now here is something I found really cool,How many times have we all gotten up in the middle of the night and tripped and stumbled our way to the bathroom?We All Have, Now my friends the people at The Comfort Inn in Lancaster California have a Nite light built into the outside vanity electrical outlet adjacent to the bathroom  with plenty of shampoo,conditioner and hand cream ,then even in the bathroom itself...Hello,I recently had the pleasure of staying at the Comfort Inn in Lancaster, California, My Check in was an experience in its own,I was happily greeted upon arrival,informed of all the Inns amenities, Breakfast from 6AM to 9AM,weight room,jacuzzi,dry sauna,where the elevators and ice machine were at,then explained where exactly my room was,how many times have we all been even shown on a map where are room was and ALWAYS got lost in the North Forty somewhere! I found my room easy enough, WOW! What a nice comfortable room,everything was there I needed,there were even plenty of Electric plug in for all my gizmos n gadgets. The bathroom and overall appearance was pleasing and above all Clean and modern,the tv was great and the control worked easily for this Weary Traveler,  my room came with a microwave and mini refrigerator for all my goodies and they worked! Ooooooooo Aaaaaahh! I slept like a baby,Quiet and my Serta Mattress was beyond cozy and comfortable ,I hated having to get up,now here is something I found really cool,How many times have we all gotten up in the middle of the night and tripped and stumbled our way to the bathroom?We All Have, Now my friends the people at The Comfort Inn in Lancaster California have a Nite light built into the outside vanity electrical outlet adjacent to the bathroom  with plenty of shampoo,conditioner and hand cream ,then even in the bathroom itself there's a built in nite lite,That is so cool n smart .The breakfast was Great and All the staff were kind and courteous and made you feel at home not like you were imposing on them,there were plenty of brochures of local attractions in the surrounding locals.So if your ever in the area or even passing through Beautiful Lancaster California, Please stay at the  Beautiful ,modern Comfort Inn it is centrally located close to the 14 freeway  remember to Exit Avenue J,right at the Valero gas station it's located on the right side of the street and (you don't have to use map quest to find it)and it's close by the local Harley Davidson Dealership right Next Door!! And an abundance of restaurants, stores and local businesses to make your stay as Comfortable as The Comfort Inn, see you soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r315502283-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>315502283</t>
+  </si>
+  <si>
+    <t>10/01/2015</t>
+  </si>
+  <si>
+    <t>Great hotel stay!</t>
+  </si>
+  <si>
+    <t>Very nice hotel and excellent value for the money as well. The rooms were clean and comfortable. Very quiet as well. The hotel staff were friendly and courteous. I would stay here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guest_relations2k, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel and excellent value for the money as well. The rooms were clean and comfortable. Very quiet as well. The hotel staff were friendly and courteous. I would stay here again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r310985553-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>310985553</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>"Treat Yourself  To A Stay, You Won't Be Disappointed!"</t>
+  </si>
+  <si>
+    <t>My Stay At Comfort Inn &amp; Suites Was A Great Experience For It Being My First Time.By Being There "ESTHER" Made Me and My Family Feel Welcomed❤ She Is Warm&amp;Inviting , She Greeted Us With Smiles and Answers and Not With Attitudes (Thank You) Housekeeping, and Breakfast Was Excellent.I Strongly Recommend That You Stay At Comfort Inn&amp;Suites MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Guest_relations2k, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2015</t>
+  </si>
+  <si>
+    <t>My Stay At Comfort Inn &amp; Suites Was A Great Experience For It Being My First Time.By Being There "ESTHER" Made Me and My Family Feel Welcomed❤ She Is Warm&amp;Inviting , She Greeted Us With Smiles and Answers and Not With Attitudes (Thank You) Housekeeping, and Breakfast Was Excellent.I Strongly Recommend That You Stay At Comfort Inn&amp;Suites More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r296347722-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>296347722</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Good location, but hotel has issues</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel for a one night stop over on the way back from Lake Tahoe to LA.  The breakfast was the average comfort inn breakfast and the hotel staff were accommodating if you asked for help, but the property needs some work and remodeling.  The pool lock doesn't work so anyone can walk right in and swim (or drown). The lock on the hotel exterior door closest to the pool didn't work so we had to walk around outside to get in the front door.  The washing machine didn't work so we had to ask for a refund and drive somewhere else to do laundry, the rooms are dated and have a 1970-80ish texture on the ceiling and old wallpaper in the bathrooms.The hotel rate needs to be decreased to the quality level of the hotel.  The rates were something like $115-124, but the hotel is worth only about $75-85 a night with its issues and dated rooms.  We would look into other hotel options next time.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Guest_relations2k, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel for a one night stop over on the way back from Lake Tahoe to LA.  The breakfast was the average comfort inn breakfast and the hotel staff were accommodating if you asked for help, but the property needs some work and remodeling.  The pool lock doesn't work so anyone can walk right in and swim (or drown). The lock on the hotel exterior door closest to the pool didn't work so we had to walk around outside to get in the front door.  The washing machine didn't work so we had to ask for a refund and drive somewhere else to do laundry, the rooms are dated and have a 1970-80ish texture on the ceiling and old wallpaper in the bathrooms.The hotel rate needs to be decreased to the quality level of the hotel.  The rates were something like $115-124, but the hotel is worth only about $75-85 a night with its issues and dated rooms.  We would look into other hotel options next time.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r282712736-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>282712736</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Clean and Affordable</t>
+  </si>
+  <si>
+    <t>The Hotel is well located with easy access to the High Way  Then room were clean and roomy  The breakfast was adiquate  we stayed on the first floor and was not disturbed by our side noise  Large baths  RecommendedMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Guest_relations2k, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded June 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2015</t>
+  </si>
+  <si>
+    <t>The Hotel is well located with easy access to the High Way  Then room were clean and roomy  The breakfast was adiquate  we stayed on the first floor and was not disturbed by our side noise  Large baths  RecommendedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r279625770-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>279625770</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Surprisingly good</t>
+  </si>
+  <si>
+    <t>This was a last road trip stay before a long drive and I expected little.  The second floor suite (John Jay Suite) had two air conditioners, a wet bar, great selection of TV channels and was in all, the finest room I had during my trip.  Reception desk was friendly and helpful.  Overall, it was a clean and well maintained property and I will definitely stay here again should I need a room in Lancaster.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a last road trip stay before a long drive and I expected little.  The second floor suite (John Jay Suite) had two air conditioners, a wet bar, great selection of TV channels and was in all, the finest room I had during my trip.  Reception desk was friendly and helpful.  Overall, it was a clean and well maintained property and I will definitely stay here again should I need a room in Lancaster.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r279138167-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>279138167</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>Ate you freaking kidding me!</t>
+  </si>
+  <si>
+    <t>I make a reservation for a king size bed on the top floor.  I get there and check in and Im given a key card for a room on the 3rd floor with a king size bed. UNFORTUNATELY WHEN I GET TO THE ROOM AND GO INSIDE IT HAS SOMEONE'S THINGS IN IT AND OBVIOUSLY OCCUPIED. None to Happy I return to the front desk and am asked to wait while she tells someone there ate No more too.s except a suite. Im like you better make sure I have a room first. While going to the bathroom. I see a man sitting in a room with a sign that says office.  I ask him if he is the manager to which he says Yes.  I tell him about being g given the key to an occupied room.  Well to make a long story short....he was to busy joking and laughing on his phone call to even get I'll and check what was going on.  Finally the chick at the front desk gives me the suite and tells the other guy there are No more rooms.  My room....in the first floor, tiny bed and smells like a smoking room.  The manager still laughing on the phone and I am totally pissed.  All I can say.  HAMPTON INNS in this area extremely better than this place.  I let my choice priveleges membership come before my preference first being treated Well.   
+All...I make a reservation for a king size bed on the top floor.  I get there and check in and Im given a key card for a room on the 3rd floor with a king size bed. UNFORTUNATELY WHEN I GET TO THE ROOM AND GO INSIDE IT HAS SOMEONE'S THINGS IN IT AND OBVIOUSLY OCCUPIED. None to Happy I return to the front desk and am asked to wait while she tells someone there ate No more too.s except a suite. Im like you better make sure I have a room first. While going to the bathroom. I see a man sitting in a room with a sign that says office.  I ask him if he is the manager to which he says Yes.  I tell him about being g given the key to an occupied room.  Well to make a long story short....he was to busy joking and laughing on his phone call to even get I'll and check what was going on.  Finally the chick at the front desk gives me the suite and tells the other guy there are No more rooms.  My room....in the first floor, tiny bed and smells like a smoking room.  The manager still laughing on the phone and I am totally pissed.  All I can say.  HAMPTON INNS in this area extremely better than this place.  I let my choice priveleges membership come before my preference first being treated Well.   All I can say.....if I found out someone had been given keys to my room and free access time my personal property.  I would be screaming for the po po!MoreShow less</t>
+  </si>
+  <si>
+    <t>I make a reservation for a king size bed on the top floor.  I get there and check in and Im given a key card for a room on the 3rd floor with a king size bed. UNFORTUNATELY WHEN I GET TO THE ROOM AND GO INSIDE IT HAS SOMEONE'S THINGS IN IT AND OBVIOUSLY OCCUPIED. None to Happy I return to the front desk and am asked to wait while she tells someone there ate No more too.s except a suite. Im like you better make sure I have a room first. While going to the bathroom. I see a man sitting in a room with a sign that says office.  I ask him if he is the manager to which he says Yes.  I tell him about being g given the key to an occupied room.  Well to make a long story short....he was to busy joking and laughing on his phone call to even get I'll and check what was going on.  Finally the chick at the front desk gives me the suite and tells the other guy there are No more rooms.  My room....in the first floor, tiny bed and smells like a smoking room.  The manager still laughing on the phone and I am totally pissed.  All I can say.  HAMPTON INNS in this area extremely better than this place.  I let my choice priveleges membership come before my preference first being treated Well.   
+All...I make a reservation for a king size bed on the top floor.  I get there and check in and Im given a key card for a room on the 3rd floor with a king size bed. UNFORTUNATELY WHEN I GET TO THE ROOM AND GO INSIDE IT HAS SOMEONE'S THINGS IN IT AND OBVIOUSLY OCCUPIED. None to Happy I return to the front desk and am asked to wait while she tells someone there ate No more too.s except a suite. Im like you better make sure I have a room first. While going to the bathroom. I see a man sitting in a room with a sign that says office.  I ask him if he is the manager to which he says Yes.  I tell him about being g given the key to an occupied room.  Well to make a long story short....he was to busy joking and laughing on his phone call to even get I'll and check what was going on.  Finally the chick at the front desk gives me the suite and tells the other guy there are No more rooms.  My room....in the first floor, tiny bed and smells like a smoking room.  The manager still laughing on the phone and I am totally pissed.  All I can say.  HAMPTON INNS in this area extremely better than this place.  I let my choice priveleges membership come before my preference first being treated Well.   All I can say.....if I found out someone had been given keys to my room and free access time my personal property.  I would be screaming for the po po!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r263127366-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>263127366</t>
+  </si>
+  <si>
+    <t>04/01/2015</t>
+  </si>
+  <si>
+    <t>Allows dogs but charges</t>
+  </si>
+  <si>
+    <t>When traveling with dogs it is always hard to find a decent place to stay. The Lancaster/Palmdale area is not a good area for being dog friendly. This hotel is decent and charged $30 which was MUCH less than the other options and they did not limit pets to cat size. We will most likely stay here again. The rooms were average for cleanliness and amenities. The location is close to the interstate and lots of eating and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Guest_relations2k, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded April 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2015</t>
+  </si>
+  <si>
+    <t>When traveling with dogs it is always hard to find a decent place to stay. The Lancaster/Palmdale area is not a good area for being dog friendly. This hotel is decent and charged $30 which was MUCH less than the other options and they did not limit pets to cat size. We will most likely stay here again. The rooms were average for cleanliness and amenities. The location is close to the interstate and lots of eating and shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r257571634-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>257571634</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Good value.</t>
+  </si>
+  <si>
+    <t>This is a nice little place to stay.  Clean rooms, quiet, complimentary breakfast and wi-fi.  I suggest a top floor, as with anywhere you go.  Nothing bad I can say about it, so all good.  Mini-fridge, TV and all your basic needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Guest_relations2k, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded March 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2015</t>
+  </si>
+  <si>
+    <t>This is a nice little place to stay.  Clean rooms, quiet, complimentary breakfast and wi-fi.  I suggest a top floor, as with anywhere you go.  Nothing bad I can say about it, so all good.  Mini-fridge, TV and all your basic needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r255476063-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>255476063</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Not clean enough</t>
+  </si>
+  <si>
+    <t>Was disappointed with my experience.  Front desk was often vacant or you had to wait for help for a long period of time.  They were ofte outside smoking.  Cleanliness was an issue.  We had a sock on the floor when we arrived which meant it hadn't neen cleaned up from the last person. Hallways and stairs had not been vacuumed or swept in the three days we stayed.  Food remained on the floor the entire time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guest_relations2k, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded March 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2015</t>
+  </si>
+  <si>
+    <t>Was disappointed with my experience.  Front desk was often vacant or you had to wait for help for a long period of time.  They were ofte outside smoking.  Cleanliness was an issue.  We had a sock on the floor when we arrived which meant it hadn't neen cleaned up from the last person. Hallways and stairs had not been vacuumed or swept in the three days we stayed.  Food remained on the floor the entire time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r240237583-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>240237583</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>Normal, Could be Cleaner</t>
+  </si>
+  <si>
+    <t>It was a fairly normal Comfort Inn in a suburban setting. My bathroom wall featured a very large black hair that I'm not sure how the staff could have missed. It does have Showtime and HBO and a fridge in the old school rooms. The bed is standard for the chain and you are within 10 minutes of Lancaster's not so finished downtown area. The pool has a weird sign, but otherwise you could do worse for a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Guest_relations2k, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2014</t>
+  </si>
+  <si>
+    <t>It was a fairly normal Comfort Inn in a suburban setting. My bathroom wall featured a very large black hair that I'm not sure how the staff could have missed. It does have Showtime and HBO and a fridge in the old school rooms. The bed is standard for the chain and you are within 10 minutes of Lancaster's not so finished downtown area. The pool has a weird sign, but otherwise you could do worse for a night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r239546468-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>239546468</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay.  Great Staff</t>
+  </si>
+  <si>
+    <t>Ester is very helpful, along with all the other staff.  I have been staying at this hotel for work for more than 6 months.   As someone that travels 250-300 days a year for work, I cannot ask for better.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ester is very helpful, along with all the other staff.  I have been staying at this hotel for work for more than 6 months.   As someone that travels 250-300 days a year for work, I cannot ask for better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r239011213-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>239011213</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Great place for a night in Lancaster</t>
+  </si>
+  <si>
+    <t>We stayed here last year because it's close to a relative. So we tried it again and found it just as nice as last year.Not sure how they get housekeeping to do all those folds, but we enjoy the special treatment to the facial tissue, toilet paper and towels. Rooms have plenty of space and are newly carpeted and very clean. We enjoy the assortment of pillows because I like a soft one and my wife differs.There is a nice fitness room/laundry and an outdoor pool. The spa is plenty hot (hard to find), but the pool is "brisk." Felt good after a long day of driving.Plenty to eat at breakfast - eggs (hard boiled and scrambled), sausage, potatoes, biscuits 'n gravy, waffles - lots of good things. Even though our room faced the freeway, it was quiet and we got some good sleep. The hotel is close to restaurants and stores - conveniently located. We'll be back next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guest_relations2k, Guest Relations Manager at Comfort Inn &amp; Suites, responded to this reviewResponded November 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here last year because it's close to a relative. So we tried it again and found it just as nice as last year.Not sure how they get housekeeping to do all those folds, but we enjoy the special treatment to the facial tissue, toilet paper and towels. Rooms have plenty of space and are newly carpeted and very clean. We enjoy the assortment of pillows because I like a soft one and my wife differs.There is a nice fitness room/laundry and an outdoor pool. The spa is plenty hot (hard to find), but the pool is "brisk." Felt good after a long day of driving.Plenty to eat at breakfast - eggs (hard boiled and scrambled), sausage, potatoes, biscuits 'n gravy, waffles - lots of good things. Even though our room faced the freeway, it was quiet and we got some good sleep. The hotel is close to restaurants and stores - conveniently located. We'll be back next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r210206374-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>210206374</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>Very clean rooms and good service!</t>
+  </si>
+  <si>
+    <t>Great service and very clean and spacious rooms! Very friendly staff n good breakfast! Centrally located . We really enjoyed the pool n had a great time. Management was very accommodating as we had some issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded June 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2014</t>
+  </si>
+  <si>
+    <t>Great service and very clean and spacious rooms! Very friendly staff n good breakfast! Centrally located . We really enjoyed the pool n had a great time. Management was very accommodating as we had some issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r210201240-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>210201240</t>
+  </si>
+  <si>
+    <t>Very clean</t>
+  </si>
+  <si>
+    <t>Very clean &amp; convenient hotel,Accessible location,Friendly staff,Clean rooms, Good shuttle service,Very good free breakfast,Good clean pool,Good rates,I will definitely recommend to friend &amp; come backMoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean &amp; convenient hotel,Accessible location,Friendly staff,Clean rooms, Good shuttle service,Very good free breakfast,Good clean pool,Good rates,I will definitely recommend to friend &amp; come backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r210035512-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>210035512</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>good average hotel</t>
+  </si>
+  <si>
+    <t>The plusses for the hotel are its location and comfortable beds. Some things have been updated but more attention could be placed on repair and replacing worn items. Cleanliness was also average. The room was not dirty and I felt comfortable staying in it but could have been cleaner. The breakfast was also average. Not much to brag about. The dining room was way too small. We ended up squeezing thru to retrieve items and then retreated back to our room. There were only two luggage carts. On a week when the hotel was completely booked these last two items mattered greatly. I guess the price we paid was ok for this area and cheaper than many other choices but I would never pay this much for this type of hotel in other areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>The plusses for the hotel are its location and comfortable beds. Some things have been updated but more attention could be placed on repair and replacing worn items. Cleanliness was also average. The room was not dirty and I felt comfortable staying in it but could have been cleaner. The breakfast was also average. Not much to brag about. The dining room was way too small. We ended up squeezing thru to retrieve items and then retreated back to our room. There were only two luggage carts. On a week when the hotel was completely booked these last two items mattered greatly. I guess the price we paid was ok for this area and cheaper than many other choices but I would never pay this much for this type of hotel in other areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r207937624-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>207937624</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>Average hotel</t>
+  </si>
+  <si>
+    <t>Beds were too hard for my taste.  Am accustomed to pillowtop mattresses.  Arrived and there was a leftover washcloth hanging from the shower stall from the previous renter, in addition to a large dead roach on the bathroom floor.  Hotel was very close to soccer fields, so that was a plus.  Breakfast was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded June 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2014</t>
+  </si>
+  <si>
+    <t>Beds were too hard for my taste.  Am accustomed to pillowtop mattresses.  Arrived and there was a leftover washcloth hanging from the shower stall from the previous renter, in addition to a large dead roach on the bathroom floor.  Hotel was very close to soccer fields, so that was a plus.  Breakfast was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r206636671-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>206636671</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>a little touch of home</t>
+  </si>
+  <si>
+    <t>I never know when I will be in Lancaster, CA, but I have the front desk phone # and call when I need a room. The front desk, knows me by name and has a room waiting for me, when I get to Lancaster, I feel its as close to home as one can get. Esther Medrano, at the front desk, takes good care of the customers. There is no other place I would stay in Lancaster, CA.MoreShow less</t>
+  </si>
+  <si>
+    <t>I never know when I will be in Lancaster, CA, but I have the front desk phone # and call when I need a room. The front desk, knows me by name and has a room waiting for me, when I get to Lancaster, I feel its as close to home as one can get. Esther Medrano, at the front desk, takes good care of the customers. There is no other place I would stay in Lancaster, CA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r203476069-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>203476069</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Nice staff</t>
+  </si>
+  <si>
+    <t>I travel for work... and sometimes I need to quickly use a computer on the go. The staff allowed me to use the computer and helped me get what I needed to do done.   Some hotels act say the computer is for "guests only" and treat potential customers like trespassers.  Comfort Inn and Suites in Lancaster treated me like a guest... If they treat visitors this well, I'm sure they treat guests equally well, and I'd recommend them to anyone.  Actions speak louder than words.. and Comfort Inn acted like a hotel should.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>gm_ca824, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded May 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2014</t>
+  </si>
+  <si>
+    <t>I travel for work... and sometimes I need to quickly use a computer on the go. The staff allowed me to use the computer and helped me get what I needed to do done.   Some hotels act say the computer is for "guests only" and treat potential customers like trespassers.  Comfort Inn and Suites in Lancaster treated me like a guest... If they treat visitors this well, I'm sure they treat guests equally well, and I'd recommend them to anyone.  Actions speak louder than words.. and Comfort Inn acted like a hotel should.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r199923799-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>199923799</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>Bring your own lamp</t>
+  </si>
+  <si>
+    <t>This hotel delivers what travelers expect from a Comfort Inn: clean rooms, comfortable beds, and watchable TV with a decent selection of channels. (While this hotel has "Inn" in its name, it does not have an on-site restaurant.) The weakness here: poor lighting. Our room had one wall lamp between the beds and one over the vanity - that's it. No floor lamps and no light anywhere near the work desk. This suggests a somewhat careless attitude on the part of staff. Touch-typing mandatory!     The included breakfast had somewhat limited choices and wasn't well-organized.MoreShow less</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded April 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2014</t>
+  </si>
+  <si>
+    <t>This hotel delivers what travelers expect from a Comfort Inn: clean rooms, comfortable beds, and watchable TV with a decent selection of channels. (While this hotel has "Inn" in its name, it does not have an on-site restaurant.) The weakness here: poor lighting. Our room had one wall lamp between the beds and one over the vanity - that's it. No floor lamps and no light anywhere near the work desk. This suggests a somewhat careless attitude on the part of staff. Touch-typing mandatory!     The included breakfast had somewhat limited choices and wasn't well-organized.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r199254531-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>199254531</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>One night Business Trip</t>
+  </si>
+  <si>
+    <t>I loved the Suites in this hotel, very large, quiet and clean. I am only in Lancaster once in 2 month period but I will make this my hotel from here on out. The staff is excellent and very accommodating. I made a mistake on my reservation and Esther Medrano took care of it and me. She has been in Lancaster/Palmdale area for a long time and can help you get around town.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded May 3, 2014</t>
+  </si>
+  <si>
+    <t>I loved the Suites in this hotel, very large, quiet and clean. I am only in Lancaster once in 2 month period but I will make this my hotel from here on out. The staff is excellent and very accommodating. I made a mistake on my reservation and Esther Medrano took care of it and me. She has been in Lancaster/Palmdale area for a long time and can help you get around town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r197388612-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>197388612</t>
+  </si>
+  <si>
+    <t>03/14/2014</t>
+  </si>
+  <si>
+    <t>Hotel stays in Lancaster, Ca.</t>
+  </si>
+  <si>
+    <t>I am often in Lancaster on business and stay at this hotel every time.  The staff is really good and they accommodate pets.  Esther Medrano - at the front desk is super.  She knows when I am running late and has my bill ready when I get to the front desk!  Adrianna in the dining area is very nice and very friendly - and also pays attention to what customers need.  All in all, you will find this hotel, clean ,comfortable and quiet - with great staff....MoreShow less</t>
+  </si>
+  <si>
+    <t>I am often in Lancaster on business and stay at this hotel every time.  The staff is really good and they accommodate pets.  Esther Medrano - at the front desk is super.  She knows when I am running late and has my bill ready when I get to the front desk!  Adrianna in the dining area is very nice and very friendly - and also pays attention to what customers need.  All in all, you will find this hotel, clean ,comfortable and quiet - with great staff....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r192264136-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>192264136</t>
+  </si>
+  <si>
+    <t>01/27/2014</t>
+  </si>
+  <si>
+    <t>Unethical management that changes cancellation policy</t>
+  </si>
+  <si>
+    <t>We are attempting to book this hotel for a two night stay over a weekend but are finding the business practices unethical without policy.  The hotel finding out about a soccer tournament over the weekend suddenly decides to change their cancellation policy from 6 pm the day of to 24 hours notice.  When I called to ask about this, the front desk clerk said "well the owner just decided to change it the other day", despite the fact that my online reservation clearly states that the cancellation policy is 6pm the day of arrival. The owner is looking to make an extra buck off of us guests who knows that we can't cancel that early depending upon the outcomes of our tournament games. Many families from our team called this hotel directly and each employee gave a different cancellation policy. What kind of company is this?  Don't book here or even stay here! There are plenty of other hotels in the area that are more lenient with cancellations that this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded February 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2014</t>
+  </si>
+  <si>
+    <t>We are attempting to book this hotel for a two night stay over a weekend but are finding the business practices unethical without policy.  The hotel finding out about a soccer tournament over the weekend suddenly decides to change their cancellation policy from 6 pm the day of to 24 hours notice.  When I called to ask about this, the front desk clerk said "well the owner just decided to change it the other day", despite the fact that my online reservation clearly states that the cancellation policy is 6pm the day of arrival. The owner is looking to make an extra buck off of us guests who knows that we can't cancel that early depending upon the outcomes of our tournament games. Many families from our team called this hotel directly and each employee gave a different cancellation policy. What kind of company is this?  Don't book here or even stay here! There are plenty of other hotels in the area that are more lenient with cancellations that this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r185146286-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>185146286</t>
+  </si>
+  <si>
+    <t>11/18/2013</t>
+  </si>
+  <si>
+    <t>Very Nice and Convenient Stay</t>
+  </si>
+  <si>
+    <t>We have relatives in Palmdale and this was close - so we gave it a try. It's easy to get to (just off the freeway and close to an exit), is attractive and well tended. Reception was friendly and our room was very nice. There is an elevator, so upper floors are easy to get to. Stairways are wide, carpeted and convenient as well.Our room was clean, well decorated and had a nice desk for computer work. It came with a refrigerator, microwave and a single-cup coffee maker. The maid left a nice fold on the toilet paper and the amenities were attractively laid out - nice touch! We started to sleep with the window open, but the freeway noise was too loud - A/C and vent worked well and provided some "white noise" for a good night's sleep.We liked the breakfast - plenty to choose from. Scrambled eggs, boiled eggs, sausage, biscuits and gravy, yogurt and the usual carbs and sugar.It features an outdoor pool and spa with pool towels. The spa was plenty hot (felt great!) and the pool is "brisk," at least in November.We thought it was a very good value. The night before we stayed at a Super 8 in Corning, CA - paid more and got less. We'll stay here again when visiting relatives next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded November 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2013</t>
+  </si>
+  <si>
+    <t>We have relatives in Palmdale and this was close - so we gave it a try. It's easy to get to (just off the freeway and close to an exit), is attractive and well tended. Reception was friendly and our room was very nice. There is an elevator, so upper floors are easy to get to. Stairways are wide, carpeted and convenient as well.Our room was clean, well decorated and had a nice desk for computer work. It came with a refrigerator, microwave and a single-cup coffee maker. The maid left a nice fold on the toilet paper and the amenities were attractively laid out - nice touch! We started to sleep with the window open, but the freeway noise was too loud - A/C and vent worked well and provided some "white noise" for a good night's sleep.We liked the breakfast - plenty to choose from. Scrambled eggs, boiled eggs, sausage, biscuits and gravy, yogurt and the usual carbs and sugar.It features an outdoor pool and spa with pool towels. The spa was plenty hot (felt great!) and the pool is "brisk," at least in November.We thought it was a very good value. The night before we stayed at a Super 8 in Corning, CA - paid more and got less. We'll stay here again when visiting relatives next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r184644978-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>184644978</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Okay for a night or two</t>
+  </si>
+  <si>
+    <t>Stayed at this location for two nights while attending a vintage racing event at Willow Springs Raceway.  The hotel was generally clean with comfortable beds and plenty of space in the room. Bathroom setup was a bit odd, with the shower and toilet in a separate room, but the sink/counter in the main part of the room.  Easy walk to nearby restaurant for dinner.  Quick access to/from 14 freeway.  Really disliked the breakfast offerings at this location.  The food was extremely bland.  While it appeared to offer the same type of breakfast bar selections that other hotel chains provide, it was not of the quality I've come to expect at most hotels.  We opted to dine at a Denny's the second morning.  Hotel staff was fine, but not particularly welcoming or outgoing.MoreShow less</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded November 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2013</t>
+  </si>
+  <si>
+    <t>Stayed at this location for two nights while attending a vintage racing event at Willow Springs Raceway.  The hotel was generally clean with comfortable beds and plenty of space in the room. Bathroom setup was a bit odd, with the shower and toilet in a separate room, but the sink/counter in the main part of the room.  Easy walk to nearby restaurant for dinner.  Quick access to/from 14 freeway.  Really disliked the breakfast offerings at this location.  The food was extremely bland.  While it appeared to offer the same type of breakfast bar selections that other hotel chains provide, it was not of the quality I've come to expect at most hotels.  We opted to dine at a Denny's the second morning.  Hotel staff was fine, but not particularly welcoming or outgoing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r179458417-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>179458417</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>I surprise gem</t>
+  </si>
+  <si>
+    <t>I was absolutely happy with this place, especially for the price.!!!I have spent twice as much and got half as good of spot.My summers are nonstop hotel stays, 100 + per year.I would have 5-stared this place if not for the location.The area is a bit dodgy, but I was not worried, but everyone has different comfort levels.For me the comfort of the room was what matters and it was perfect!!! I will be back,Staff was super friendly, no issues at all, fast wi-fi. My first review, on Trip Advisor, but I have 200+ reviews on Yelp Jay C Renothis is not a fakeMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded October 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2013</t>
+  </si>
+  <si>
+    <t>I was absolutely happy with this place, especially for the price.!!!I have spent twice as much and got half as good of spot.My summers are nonstop hotel stays, 100 + per year.I would have 5-stared this place if not for the location.The area is a bit dodgy, but I was not worried, but everyone has different comfort levels.For me the comfort of the room was what matters and it was perfect!!! I will be back,Staff was super friendly, no issues at all, fast wi-fi. My first review, on Trip Advisor, but I have 200+ reviews on Yelp Jay C Renothis is not a fakeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r177965111-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>177965111</t>
+  </si>
+  <si>
+    <t>09/20/2013</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We stay here during the week for work, This hotel is clean and fresh the staff is so attentive, they make your stay so comfortable. The service is great, over all I would recommend this hotel, As always Esther Medrano receives us with great pleasure and always has our rooms ready. THANKS ESTHER MEDRANO for a pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded September 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2013</t>
+  </si>
+  <si>
+    <t>We stay here during the week for work, This hotel is clean and fresh the staff is so attentive, they make your stay so comfortable. The service is great, over all I would recommend this hotel, As always Esther Medrano receives us with great pleasure and always has our rooms ready. THANKS ESTHER MEDRANO for a pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r177464898-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>177464898</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>Great hotel and service</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 nights while visiting our daughter and found this hotel comfortable, clean and has wonderful service. Esther at the front desk was wonderful and the staff of the breakfast area so helpful. She greeted us with a smile every morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 nights while visiting our daughter and found this hotel comfortable, clean and has wonderful service. Esther at the front desk was wonderful and the staff of the breakfast area so helpful. She greeted us with a smile every morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r175639885-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>175639885</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Lancaster Comfort Inn</t>
+  </si>
+  <si>
+    <t>The hotel was clean and the room smelt fresh and clean. Bedding was comfortable and the front desk was excellent and helpful. Breakfast was good and fresh. Complimentary water in the room, nice touch.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded September 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2013</t>
+  </si>
+  <si>
+    <t>The hotel was clean and the room smelt fresh and clean. Bedding was comfortable and the front desk was excellent and helpful. Breakfast was good and fresh. Complimentary water in the room, nice touch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r173094085-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>173094085</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>terrible staff</t>
+  </si>
+  <si>
+    <t>I was a guest last month. I must say that every time I have stayed here I have been pleased. Except for this time.  I overheard one of the girls at the desk talking outside about the old manager and the new manager, and the housekeeping being Latina and not speaking English , this was both a surprise and a disappointment as I am a Latina myself. It was unprofessional to say the least even when she spoke badly about the owner.  I will not be returning to this hotel, because I can't imagine staying where the management allows such unprofessional behavior.MoreShow less</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded August 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2013</t>
+  </si>
+  <si>
+    <t>I was a guest last month. I must say that every time I have stayed here I have been pleased. Except for this time.  I overheard one of the girls at the desk talking outside about the old manager and the new manager, and the housekeeping being Latina and not speaking English , this was both a surprise and a disappointment as I am a Latina myself. It was unprofessional to say the least even when she spoke badly about the owner.  I will not be returning to this hotel, because I can't imagine staying where the management allows such unprofessional behavior.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r172304915-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>172304915</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>We won't be staying here again.</t>
+  </si>
+  <si>
+    <t>We had stayed at the Comfort Inn in Lancaster once before, so we decided to try it again. Everyone working there was friendly and helpful. I really liked our room. We rented a one bedroom suite.  However, we had several problems that added up and we decided next year we will stay at one of the other hotels on this street. As it turned out, I had actually made my reservations with the Oxford Inn and gotten confused as to where I had made my reservation this time around. Fortunately, there were so many people wanting to stay at the Oxford Inn I was not charged for canceling my reservation. 
+Here were my problems with the Comfort Inn:
+#1.  The mattress was so hard I woke up with so much pain in my hip I had to take Motrin. That may not sound like much to you, but anybody who knows me knows I don't take medication for pain. I ended up sleeping on the couch. My husband slept in the bed and ate Motrin for the rest of our stay.  
+#2.  There was a dead bird on the balcony. It wasn't the biggest deal because we didn't really use the balcony, but still, it shouldn't have been there.
+#3.  Several of the workout machines were broken and this was a big deal to me since I have been trying to keep up an exercise regimen and diet regimen.  The...We had stayed at the Comfort Inn in Lancaster once before, so we decided to try it again. Everyone working there was friendly and helpful. I really liked our room. We rented a one bedroom suite.  However, we had several problems that added up and we decided next year we will stay at one of the other hotels on this street. As it turned out, I had actually made my reservations with the Oxford Inn and gotten confused as to where I had made my reservation this time around. Fortunately, there were so many people wanting to stay at the Oxford Inn I was not charged for canceling my reservation. Here were my problems with the Comfort Inn:#1.  The mattress was so hard I woke up with so much pain in my hip I had to take Motrin. That may not sound like much to you, but anybody who knows me knows I don't take medication for pain. I ended up sleeping on the couch. My husband slept in the bed and ate Motrin for the rest of our stay.  #2.  There was a dead bird on the balcony. It wasn't the biggest deal because we didn't really use the balcony, but still, it shouldn't have been there.#3.  Several of the workout machines were broken and this was a big deal to me since I have been trying to keep up an exercise regimen and diet regimen.  The treadmill didn't work at all. The stairstepper (if you want to call the flimsy piece of equipment a stairstepper) didn't work properly. The hydraulics or whatever they are called didn't work. The stationery bike didn't work that well either. So, I just made a point of using the stairs as much as I could.  Still, of course, this was not enough exercise since I was only on the second floor.. #4.  The food for breakfast was not very good. I knew I wouldn't be eating the food and brought my own. I started eating organic foods at the beginning of the year, so my choices are pretty limited. I understand that and carry my own foods with me. My husband has no such qualms and will eat just about everything without complaint. Not this time around. He had several complaints about the meats and the eggs and the coffee. He ended up just eating the yogurts for breakfast. He was pretty disappointed.#5.  We had some problems with our microwave, but Mike, the maintenance guy, came and switched it out for us.#6.  We wanted a late check out. When we came back to the hotel the night before our checkout we asked about a late check out. The guy behind the desk said we could check out at 1 pm because we were Choice Rewards members.  In the morning I went downstairs to see if we could get one more hour and check out at 2. I was told we could not check out late because the housekeepers had to be off by noon. I have to admit to being very irritated by this. We were late for our meeting because we had to pack up and load the car before going out again. Frustrating.I do have to say I loved our room. It was room 214 which is located right above the lobby.  It was a great room. If the mattress was more comfortable, the fitness room in working order, and the food more palatable I would reconsider staying at the Comfort Inn. Every employee we dealt with was friendly and helpful. I just don't want to chance having a horrible mattress and broken exercise equipment.MoreShow less</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded August 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2013</t>
+  </si>
+  <si>
+    <t>We had stayed at the Comfort Inn in Lancaster once before, so we decided to try it again. Everyone working there was friendly and helpful. I really liked our room. We rented a one bedroom suite.  However, we had several problems that added up and we decided next year we will stay at one of the other hotels on this street. As it turned out, I had actually made my reservations with the Oxford Inn and gotten confused as to where I had made my reservation this time around. Fortunately, there were so many people wanting to stay at the Oxford Inn I was not charged for canceling my reservation. 
+Here were my problems with the Comfort Inn:
+#1.  The mattress was so hard I woke up with so much pain in my hip I had to take Motrin. That may not sound like much to you, but anybody who knows me knows I don't take medication for pain. I ended up sleeping on the couch. My husband slept in the bed and ate Motrin for the rest of our stay.  
+#2.  There was a dead bird on the balcony. It wasn't the biggest deal because we didn't really use the balcony, but still, it shouldn't have been there.
+#3.  Several of the workout machines were broken and this was a big deal to me since I have been trying to keep up an exercise regimen and diet regimen.  The...We had stayed at the Comfort Inn in Lancaster once before, so we decided to try it again. Everyone working there was friendly and helpful. I really liked our room. We rented a one bedroom suite.  However, we had several problems that added up and we decided next year we will stay at one of the other hotels on this street. As it turned out, I had actually made my reservations with the Oxford Inn and gotten confused as to where I had made my reservation this time around. Fortunately, there were so many people wanting to stay at the Oxford Inn I was not charged for canceling my reservation. Here were my problems with the Comfort Inn:#1.  The mattress was so hard I woke up with so much pain in my hip I had to take Motrin. That may not sound like much to you, but anybody who knows me knows I don't take medication for pain. I ended up sleeping on the couch. My husband slept in the bed and ate Motrin for the rest of our stay.  #2.  There was a dead bird on the balcony. It wasn't the biggest deal because we didn't really use the balcony, but still, it shouldn't have been there.#3.  Several of the workout machines were broken and this was a big deal to me since I have been trying to keep up an exercise regimen and diet regimen.  The treadmill didn't work at all. The stairstepper (if you want to call the flimsy piece of equipment a stairstepper) didn't work properly. The hydraulics or whatever they are called didn't work. The stationery bike didn't work that well either. So, I just made a point of using the stairs as much as I could.  Still, of course, this was not enough exercise since I was only on the second floor.. #4.  The food for breakfast was not very good. I knew I wouldn't be eating the food and brought my own. I started eating organic foods at the beginning of the year, so my choices are pretty limited. I understand that and carry my own foods with me. My husband has no such qualms and will eat just about everything without complaint. Not this time around. He had several complaints about the meats and the eggs and the coffee. He ended up just eating the yogurts for breakfast. He was pretty disappointed.#5.  We had some problems with our microwave, but Mike, the maintenance guy, came and switched it out for us.#6.  We wanted a late check out. When we came back to the hotel the night before our checkout we asked about a late check out. The guy behind the desk said we could check out at 1 pm because we were Choice Rewards members.  In the morning I went downstairs to see if we could get one more hour and check out at 2. I was told we could not check out late because the housekeepers had to be off by noon. I have to admit to being very irritated by this. We were late for our meeting because we had to pack up and load the car before going out again. Frustrating.I do have to say I loved our room. It was room 214 which is located right above the lobby.  It was a great room. If the mattress was more comfortable, the fitness room in working order, and the food more palatable I would reconsider staying at the Comfort Inn. Every employee we dealt with was friendly and helpful. I just don't want to chance having a horrible mattress and broken exercise equipment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r171248506-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>171248506</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>Great service at a great price</t>
+  </si>
+  <si>
+    <t>I have had an excellent stay. They work hard to accomadate all of my need while i was here. Ms. Esther Medrano as well as all the others working front desk exceeds there job description. Thank you comfort inn for a wonderful stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have had an excellent stay. They work hard to accomadate all of my need while i was here. Ms. Esther Medrano as well as all the others working front desk exceeds there job description. Thank you comfort inn for a wonderful stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r170895752-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>170895752</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>Outstanding Customer Service by Esther at the Front Desk</t>
+  </si>
+  <si>
+    <t>Esther made the 6 day stay at this hotel enjoyable in another otherwise boring work week at Edwards AFB.  Esthers attention to our concerns and travel problems made it a real pleasure to come back to the hotel every night.  I travel extensivly and the Comfort Inn, Lancaster due to the customer service I received from Esther and the other staff members during my stay has all of the expensive hotels beat hands down.  I can recommend this place to everyone.Bill M.  Arlington, Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded August 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2013</t>
+  </si>
+  <si>
+    <t>Esther made the 6 day stay at this hotel enjoyable in another otherwise boring work week at Edwards AFB.  Esthers attention to our concerns and travel problems made it a real pleasure to come back to the hotel every night.  I travel extensivly and the Comfort Inn, Lancaster due to the customer service I received from Esther and the other staff members during my stay has all of the expensive hotels beat hands down.  I can recommend this place to everyone.Bill M.  Arlington, Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r170443757-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>170443757</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>World Class Customer Service</t>
+  </si>
+  <si>
+    <t>Just had to write a review for this hotel. Wonderful service from each staff member on every shift. Attention to detail just excellent. Rooms are comfortable and just right for me. I'm a business traveler and can choose the expensive hotels. This one has those beat in customer service for me. Esther is a good ambassador for the hotel as is all the employees who have served me well.ForrestLong Beach, CAMoreShow less</t>
+  </si>
+  <si>
+    <t>Just had to write a review for this hotel. Wonderful service from each staff member on every shift. Attention to detail just excellent. Rooms are comfortable and just right for me. I'm a business traveler and can choose the expensive hotels. This one has those beat in customer service for me. Esther is a good ambassador for the hotel as is all the employees who have served me well.ForrestLong Beach, CAMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r159917025-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>159917025</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Quiet and nice touches</t>
+  </si>
+  <si>
+    <t>The Inn is immediately off the Freeway, but the 3rd floor room with carpeted hallways was so quiet we heard no external noises inside or out.  The room was large and clean throughout.  But what impressed us were the extra touches.  For example.  The big basket of oranges on the check-in desk and the decorative fountain in the lobby. We didn't take any fruit, but it was an inviting ambiance.  The slate floor and matching decorative tile in the bathtub/shower, with ceramic tub.  No prefab fiberglass.  The Queen Anne style furniture with a desk, a card table, with 2 desk chairs and 2 arm chairs.  No need to sit on the bed.  The separation of toilet/shower and wash/dressing areas with automatic/touch light controls and night light.  Thoughtfulness rather construction-cost considerations are evident.Wireless connection was easy and reception excellent.  Free breakfast included commercial coffee-shop range of choices.We would certainly stay here again if spending time anywhere in the Antelope Valley.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded May 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2013</t>
+  </si>
+  <si>
+    <t>The Inn is immediately off the Freeway, but the 3rd floor room with carpeted hallways was so quiet we heard no external noises inside or out.  The room was large and clean throughout.  But what impressed us were the extra touches.  For example.  The big basket of oranges on the check-in desk and the decorative fountain in the lobby. We didn't take any fruit, but it was an inviting ambiance.  The slate floor and matching decorative tile in the bathtub/shower, with ceramic tub.  No prefab fiberglass.  The Queen Anne style furniture with a desk, a card table, with 2 desk chairs and 2 arm chairs.  No need to sit on the bed.  The separation of toilet/shower and wash/dressing areas with automatic/touch light controls and night light.  Thoughtfulness rather construction-cost considerations are evident.Wireless connection was easy and reception excellent.  Free breakfast included commercial coffee-shop range of choices.We would certainly stay here again if spending time anywhere in the Antelope Valley.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r157920775-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>157920775</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>Nice room, rude service</t>
+  </si>
+  <si>
+    <t>First of all, I want to say that the rooms are nice, clean, and well appointed for the price range.  My problem with this hotel was the rude treatment I received upon check in.  It seemed like I interrupted the young man's night when I showed up a little after 8 pm.  The disinterested employee gave short and vague answers to the questions I posed about the accommodations.  The rest of the staff has been pleasant and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded April 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2013</t>
+  </si>
+  <si>
+    <t>First of all, I want to say that the rooms are nice, clean, and well appointed for the price range.  My problem with this hotel was the rude treatment I received upon check in.  It seemed like I interrupted the young man's night when I showed up a little after 8 pm.  The disinterested employee gave short and vague answers to the questions I posed about the accommodations.  The rest of the staff has been pleasant and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r157241588-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>157241588</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Nice place at a great price.</t>
+  </si>
+  <si>
+    <t>Though Lancaster, CA is not on most people's must see list, I can recommend this place if you find yourself there. It has one if the better breakfasts included, rooms are clean and well appointed, staff is incredibly friendly and helpful, and every room is available to dogs. The latter is important for me. It's biggest downside is location: on the edge of town next to the freeway, but the noise has never been a problem. I've stated at other places in Lancaster, and for the money, you can't get a better deal,MoreShow less</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded April 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2013</t>
+  </si>
+  <si>
+    <t>Though Lancaster, CA is not on most people's must see list, I can recommend this place if you find yourself there. It has one if the better breakfasts included, rooms are clean and well appointed, staff is incredibly friendly and helpful, and every room is available to dogs. The latter is important for me. It's biggest downside is location: on the edge of town next to the freeway, but the noise has never been a problem. I've stated at other places in Lancaster, and for the money, you can't get a better deal,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r146152412-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>146152412</t>
+  </si>
+  <si>
+    <t>11/25/2012</t>
+  </si>
+  <si>
+    <t>Esther at the front desk</t>
+  </si>
+  <si>
+    <t>Esther at the front desk has good customer service, Helped me sign up for the choice awards program. She also assisted me with staying over another night. I was not sure exactly how long I would need the room and she talked me into staying again. kudos to EstherMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded November 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2012</t>
+  </si>
+  <si>
+    <t>Esther at the front desk has good customer service, Helped me sign up for the choice awards program. She also assisted me with staying over another night. I was not sure exactly how long I would need the room and she talked me into staying again. kudos to EstherMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r146150194-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>146150194</t>
+  </si>
+  <si>
+    <t>Nice clean room at a nice price.</t>
+  </si>
+  <si>
+    <t>My wife and I stay at the comfort in at least once a month and we are greated by name when we check in. The staff is friendly and helpfull. The rooms are clean and comfortable. We have enjoyed the pool/jaccuzzi a few times and the grounds are clean and secure. We like to get up and have a free breakfast which includes scrambled eggs, potatoes, sausage, waffles, etc. Upon checkout, Esther is usually at the desk to great us and help with checkout. All in all, this hotel is clean, safe, and comfortable. We will continue to stay in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stay at the comfort in at least once a month and we are greated by name when we check in. The staff is friendly and helpfull. The rooms are clean and comfortable. We have enjoyed the pool/jaccuzzi a few times and the grounds are clean and secure. We like to get up and have a free breakfast which includes scrambled eggs, potatoes, sausage, waffles, etc. Upon checkout, Esther is usually at the desk to great us and help with checkout. All in all, this hotel is clean, safe, and comfortable. We will continue to stay in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r139566896-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>139566896</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>My stay at Comfort Inn Lancaster was the best. As Front Desk Agent, Esther was extremly helpful with my extended stay. I was not sure how long I would be staying, so Esther made the reservation holds as I needed, then processed them as I indeed stayed those nights. Seeing the smile on her face early in the morning as I went for breakfast definately started my day on a bright note. Thank you Esther and all the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded September 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2012</t>
+  </si>
+  <si>
+    <t>My stay at Comfort Inn Lancaster was the best. As Front Desk Agent, Esther was extremly helpful with my extended stay. I was not sure how long I would be staying, so Esther made the reservation holds as I needed, then processed them as I indeed stayed those nights. Seeing the smile on her face early in the morning as I went for breakfast definately started my day on a bright note. Thank you Esther and all the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r123124852-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>123124852</t>
+  </si>
+  <si>
+    <t>01/15/2012</t>
+  </si>
+  <si>
+    <t>Fantastic Hospitality!!</t>
+  </si>
+  <si>
+    <t>Was there with my family and was a pleasure to stay in a hotel. True value for money.Thanks to all staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r121987290-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>121987290</t>
+  </si>
+  <si>
+    <t>12/22/2011</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>The staff at Comfort Suites in Lancaster has again been wonderful.   It has been a difficult trip with a sick family member, yet I am greeted with smiles and always a welcome spirit.  The staff here show kindness and friendliness and are attentive to guest needs.  Thank youI highly recommend this hotel.Sandi003Texas</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r121963043-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>121963043</t>
+  </si>
+  <si>
+    <t>12/21/2011</t>
+  </si>
+  <si>
+    <t>Great place to stay in Lancaster</t>
+  </si>
+  <si>
+    <t>Warm welcome as you come into the lobby. Service was great. The check in was easy and fast. The rooms clean and relaxing. The beds were perfect. Breakfast was awesome. It is a very nice place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r120346308-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>120346308</t>
+  </si>
+  <si>
+    <t>11/08/2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was pleased with the room and the breakfast the bed was very nice could use a flat screen in the room for updates but all and all the desk service was awsome,it's also close to the post office,motorcycle shop and other resteraunts </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r116982442-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>116982442</t>
+  </si>
+  <si>
+    <t>08/20/2011</t>
+  </si>
+  <si>
+    <t>Like coming home</t>
+  </si>
+  <si>
+    <t>I stay at this Comfort Inn quite often, and I can't say enough about how friendly everyone is, and how helpful.  I usually get a Jacuzzi suite, and they're always spotless and well turned-out; when I stay in a "regular" room, it's the same.  The fact is that I am a repeat customer because of the standard of service that I experienced when I started staying at this Comfort Inn years ago, and now it is my home-away-from home when I am in the Lancaster area. Mu only complaint: you need automatic doors into the lobby (I've always got suitcases and it's very hard to pull the doors toward you!)  Other than that...top notch.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>I stay at this Comfort Inn quite often, and I can't say enough about how friendly everyone is, and how helpful.  I usually get a Jacuzzi suite, and they're always spotless and well turned-out; when I stay in a "regular" room, it's the same.  The fact is that I am a repeat customer because of the standard of service that I experienced when I started staying at this Comfort Inn years ago, and now it is my home-away-from home when I am in the Lancaster area. Mu only complaint: you need automatic doors into the lobby (I've always got suitcases and it's very hard to pull the doors toward you!)  Other than that...top notch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r116718452-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>116718452</t>
+  </si>
+  <si>
+    <t>08/14/2011</t>
+  </si>
+  <si>
+    <t>Very good hotel, nice staff.</t>
+  </si>
+  <si>
+    <t>Just got back from a one-night stay in this hotel. Overall, was a very good experience and I would definitely recommend it.Good points:• We had the Swimming pool (outdoor - but Lancaster's in the middle of a desert so it's very warm!) and hot tub to ourselves, which was great.• The staff were all very friendly.• Room was fairly large - there were three of us staying there.• Everything was very clean and in a good state or repair.Bad points:• It's near to the freeway so there is some noise when you're in the pool, but this doesn't intrude into the room, and we had the window open.• Noise from the room above us was quite loud at times.• The (free) wireless internet was patchy.Unfortunately we had to leave too early to have breakfast (we left at 5:30am and breakfast starts at 6am)...but when we checked out we found that they'd just finished putting out the breakfast stuff. So we grabbed a coffee and banana each. It was the usual cereals, bagels, waffles etc. - looked ok and the breakfast area was very pleasant.There was a sauna and fitness centre which we didn't get around to using.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just got back from a one-night stay in this hotel. Overall, was a very good experience and I would definitely recommend it.Good points:• We had the Swimming pool (outdoor - but Lancaster's in the middle of a desert so it's very warm!) and hot tub to ourselves, which was great.• The staff were all very friendly.• Room was fairly large - there were three of us staying there.• Everything was very clean and in a good state or repair.Bad points:• It's near to the freeway so there is some noise when you're in the pool, but this doesn't intrude into the room, and we had the window open.• Noise from the room above us was quite loud at times.• The (free) wireless internet was patchy.Unfortunately we had to leave too early to have breakfast (we left at 5:30am and breakfast starts at 6am)...but when we checked out we found that they'd just finished putting out the breakfast stuff. So we grabbed a coffee and banana each. It was the usual cereals, bagels, waffles etc. - looked ok and the breakfast area was very pleasant.There was a sauna and fitness centre which we didn't get around to using.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r115821692-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>115821692</t>
+  </si>
+  <si>
+    <t>07/26/2011</t>
+  </si>
+  <si>
+    <t>Great Staff!!!</t>
+  </si>
+  <si>
+    <t>Our stay was quite enjoyable at this comfort Inn. .   The staff was wonderful, friendly and helpful.   It can be difficult to be away from home, and we felt very welcomed and cared about in this hotel.   Thank you so very much</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r115088019-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>115088019</t>
+  </si>
+  <si>
+    <t>07/06/2011</t>
+  </si>
+  <si>
+    <t>Fantastic Staff and Hotel</t>
+  </si>
+  <si>
+    <t>The hotel staff is great. They do an excellent job of taking care of their guest. The hotel is well taken care of and the rooms are clean. Great place to stay. The hot breakfast are a great touch. I would definitely recommend this hotel on your next trip.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r114998979-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>114998979</t>
+  </si>
+  <si>
+    <t>07/03/2011</t>
+  </si>
+  <si>
+    <t>The friendliest hotel I have ever stayed in</t>
+  </si>
+  <si>
+    <t>The whole staff is really helpful. They have made an effort to know us and know our likes, and always try to go the extra effort to make our stay more confortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r105503872-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>105503872</t>
+  </si>
+  <si>
+    <t>04/25/2011</t>
+  </si>
+  <si>
+    <t>No need to look further in the Antelope Valley</t>
+  </si>
+  <si>
+    <t>I've stayed here at the Comfort Inn on over 200 occasions in the past 2 1/2 years. I've had no need, desire or reason to go to any other of the many choices for hotels in the Antelope Valley (Palmdale / Lancaster). Rooms are VERY clean (very important to my germaphobe-self), the beds are comfy (5 pillows per bed!) and the hotel staff are incredible (very friendly and helpful). I've only had experiences with one other hotel in the area (which was ho-hum, to say the least), so my review does have its limits, but if you don't want to take chances (especially if you're on vacation), I highly recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>I've stayed here at the Comfort Inn on over 200 occasions in the past 2 1/2 years. I've had no need, desire or reason to go to any other of the many choices for hotels in the Antelope Valley (Palmdale / Lancaster). Rooms are VERY clean (very important to my germaphobe-self), the beds are comfy (5 pillows per bed!) and the hotel staff are incredible (very friendly and helpful). I've only had experiences with one other hotel in the area (which was ho-hum, to say the least), so my review does have its limits, but if you don't want to take chances (especially if you're on vacation), I highly recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r104214906-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>104214906</t>
+  </si>
+  <si>
+    <t>04/15/2011</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>The front desk staff were friendly and professional. The room was always stocked and the upkeep was great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r62792856-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>62792856</t>
+  </si>
+  <si>
+    <t>04/29/2010</t>
+  </si>
+  <si>
+    <t>Traffic noise all night</t>
+  </si>
+  <si>
+    <t>This motel is very nice, very comfortable, staff was friendly, and it was a reasonably priced.  Unfortunately, it backs right up to Hwy 14, our room was in the back overlooking the freeway, and we listened to loud highway noise all night.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r51683176-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>51683176</t>
+  </si>
+  <si>
+    <t>12/22/2009</t>
+  </si>
+  <si>
+    <t>Friendly Staff, Cozy Environment, and Warm Cookies!</t>
+  </si>
+  <si>
+    <t>My wife and I went to this hotel for a nice little getaway from the city. I really don't know what the previous post was talking about because the hotel is wonderful. I'm a VERY clean person and the type who does not like staying at certain places. However, this place is very clean, decent price, helpful/friendly staff, private, healthy breakfast, warm cookies, workout room, quiet, and nothing was wrong with the ventilation or ac. I tried the hampton and this one is definately better. Anyway this hotel gets a two thumbs up.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>gm_ca824, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded February 19, 2010</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2010</t>
+  </si>
+  <si>
+    <t>My wife and I went to this hotel for a nice little getaway from the city. I really don't know what the previous post was talking about because the hotel is wonderful. I'm a VERY clean person and the type who does not like staying at certain places. However, this place is very clean, decent price, helpful/friendly staff, private, healthy breakfast, warm cookies, workout room, quiet, and nothing was wrong with the ventilation or ac. I tried the hampton and this one is definately better. Anyway this hotel gets a two thumbs up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r42879336-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>42879336</t>
+  </si>
+  <si>
+    <t>09/19/2009</t>
+  </si>
+  <si>
+    <t>Would not stay here again. No A/C, low quality room, rags for towels.</t>
+  </si>
+  <si>
+    <t>It was a really hot day (well over 90) and there was no air conditioning. There was a vent for it but no air coming out and not controls in the room. The towels were like the ones I use when I give my dog a bath, or maybe worse. We visited friends in another hotel in the same area and their hotel, Hampton Inn, was like night and day better than this one. Go there instead, same price for real luxury instead of real crummy.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>It was a really hot day (well over 90) and there was no air conditioning. There was a vent for it but no air coming out and not controls in the room. The towels were like the ones I use when I give my dog a bath, or maybe worse. We visited friends in another hotel in the same area and their hotel, Hampton Inn, was like night and day better than this one. Go there instead, same price for real luxury instead of real crummy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r24154929-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>24154929</t>
+  </si>
+  <si>
+    <t>02/02/2009</t>
+  </si>
+  <si>
+    <t>Friends loved it and so did we</t>
+  </si>
+  <si>
+    <t>Our friends stayed here and we stayed next door - they loved it and we loved hanging there with them.  Nice people - great breakfast and warm cookies at night.  Oxford inn tried to scam us so we dorve here and they were fantastic!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>Our friends stayed here and we stayed next door - they loved it and we loved hanging there with them.  Nice people - great breakfast and warm cookies at night.  Oxford inn tried to scam us so we dorve here and they were fantastic!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r12451027-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>12451027</t>
+  </si>
+  <si>
+    <t>01/08/2008</t>
+  </si>
+  <si>
+    <t>Good Location, clean and new</t>
+  </si>
+  <si>
+    <t>I chose this hotel because the Antelope Valley bus from LAX leaves you right in front of it. The hotel is located conveniently off highway 14 and has even many places to eat within walking distance. We felt the room was very clean. Everything looked brand new. My only complaint was the limited healthy choices for breakfast. The staff was extremely helpful and very friendly. I would stay again.DMM - Long Island NYMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>gm_ca824, General Manager at Comfort Inn &amp; Suites, responded to this reviewResponded October 21, 2008</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2008</t>
+  </si>
+  <si>
+    <t>I chose this hotel because the Antelope Valley bus from LAX leaves you right in front of it. The hotel is located conveniently off highway 14 and has even many places to eat within walking distance. We felt the room was very clean. Everything looked brand new. My only complaint was the limited healthy choices for breakfast. The staff was extremely helpful and very friendly. I would stay again.DMM - Long Island NYMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r8444275-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>8444275</t>
+  </si>
+  <si>
+    <t>08/16/2007</t>
+  </si>
+  <si>
+    <t>Cleanest hotel ever</t>
+  </si>
+  <si>
+    <t>Most courteous and obliging staff I've ever seen.  I recently had the need to travel to the Lancaster, ca. area and at the advice of a friend stayed at this most delightful property.  I found the staff very obliging of my every request and was especially pleased to find the manager on the property and actively engaged in helping guests in the evening hours when most hotels are staffed by part timers.  The room was the cleanest I've ever stayed in. There weren't even water spots on the shower curtain rod. The parking area was well lighted and even though the wind was blowing, there wasn't one bit of trash to be found anywhere in the parking area or in the bushes or anywhere on the property. The hallways were spotless and the breakfast area was cleaner than the restaurants that we ate at in the area. I would highly recommend this hotel to anyone who cares about their comfort and personal safety.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>Most courteous and obliging staff I've ever seen.  I recently had the need to travel to the Lancaster, ca. area and at the advice of a friend stayed at this most delightful property.  I found the staff very obliging of my every request and was especially pleased to find the manager on the property and actively engaged in helping guests in the evening hours when most hotels are staffed by part timers.  The room was the cleanest I've ever stayed in. There weren't even water spots on the shower curtain rod. The parking area was well lighted and even though the wind was blowing, there wasn't one bit of trash to be found anywhere in the parking area or in the bushes or anywhere on the property. The hallways were spotless and the breakfast area was cleaner than the restaurants that we ate at in the area. I would highly recommend this hotel to anyone who cares about their comfort and personal safety.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r5294104-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>5294104</t>
+  </si>
+  <si>
+    <t>06/02/2006</t>
+  </si>
+  <si>
+    <t>Worst beds and towels ever!</t>
+  </si>
+  <si>
+    <t>We stayed one night-- never again!  While the hotel was clean and the staff were friendly and helpful, the accomodations left much to be desired.  We're not picky, but the bed was the hardest bed we've ever slept in, the pillows were flat, and the towels were like sandpaper!  If you can look past these things, then the hotel was fine.The hotel was clean, our room had good furniture and appliances (TV, Fridge, Microwave, etc.) and the bathroom was clean.  The breakfast was adequate and well-stocked.  There was no way we would have stayed another night.  Sleeping and showering are too important, and those two things were both horrible.  If you don't mind a rock-hard mattress or sandpaper towels, then you probably won't want to miss staying at  this hotel.  But you've been warned...MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one night-- never again!  While the hotel was clean and the staff were friendly and helpful, the accomodations left much to be desired.  We're not picky, but the bed was the hardest bed we've ever slept in, the pillows were flat, and the towels were like sandpaper!  If you can look past these things, then the hotel was fine.The hotel was clean, our room had good furniture and appliances (TV, Fridge, Microwave, etc.) and the bathroom was clean.  The breakfast was adequate and well-stocked.  There was no way we would have stayed another night.  Sleeping and showering are too important, and those two things were both horrible.  If you don't mind a rock-hard mattress or sandpaper towels, then you probably won't want to miss staying at  this hotel.  But you've been warned...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r3433583-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>3433583</t>
+  </si>
+  <si>
+    <t>05/01/2005</t>
+  </si>
+  <si>
+    <t>Not good enough</t>
+  </si>
+  <si>
+    <t>Would not stay any more. Room was not clean completely. Found two bugs in bathroom and food under the bed. We did not get service until next day from houskeeping. We have to clean under the bed as it was smeling bad.</t>
+  </si>
+  <si>
+    <t>February 2005</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r3272685-Comfort_Inn_Suites-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>3272685</t>
+  </si>
+  <si>
+    <t>03/13/2005</t>
+  </si>
+  <si>
+    <t>'twas OK, but a great location...please read</t>
+  </si>
+  <si>
+    <t>Great location as it was close to Highway 14.  Room was clean, except for some debris by the telephone.  Bathroom amenities were adequate.  Breakfast was somewhat of a disappointment.  It was not up to the Choice Hotels standards.  I did go back to the area after I was done, and they did replenish the breakfast buffet.  I might have to stay at the Holiday Inn Express across the street.  Staff was pleasant.</t>
+  </si>
+  <si>
+    <t>March 2005</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2683,6008 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>111</v>
+      </c>
+      <c r="X11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>111</v>
+      </c>
+      <c r="X12" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>111</v>
+      </c>
+      <c r="X13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>111</v>
+      </c>
+      <c r="X14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>111</v>
+      </c>
+      <c r="X15" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="s">
+        <v>133</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>111</v>
+      </c>
+      <c r="X16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>111</v>
+      </c>
+      <c r="X17" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>190</v>
+      </c>
+      <c r="X21" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>198</v>
+      </c>
+      <c r="X22" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>198</v>
+      </c>
+      <c r="X23" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" t="s">
+        <v>213</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>214</v>
+      </c>
+      <c r="X24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>222</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>223</v>
+      </c>
+      <c r="X25" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>231</v>
+      </c>
+      <c r="X26" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>239</v>
+      </c>
+      <c r="X27" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s">
+        <v>246</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>222</v>
+      </c>
+      <c r="O28" t="s">
+        <v>133</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>239</v>
+      </c>
+      <c r="X28" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>154</v>
+      </c>
+      <c r="O29" t="s">
+        <v>133</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>239</v>
+      </c>
+      <c r="X29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>255</v>
+      </c>
+      <c r="J30" t="s">
+        <v>256</v>
+      </c>
+      <c r="K30" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30" t="s">
+        <v>258</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>222</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>239</v>
+      </c>
+      <c r="X30" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>261</v>
+      </c>
+      <c r="J31" t="s">
+        <v>262</v>
+      </c>
+      <c r="K31" t="s">
+        <v>263</v>
+      </c>
+      <c r="L31" t="s">
+        <v>264</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>222</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>239</v>
+      </c>
+      <c r="X31" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" t="s">
+        <v>268</v>
+      </c>
+      <c r="K32" t="s">
+        <v>269</v>
+      </c>
+      <c r="L32" t="s">
+        <v>270</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>271</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>272</v>
+      </c>
+      <c r="X32" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>276</v>
+      </c>
+      <c r="J33" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L33" t="s">
+        <v>279</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>280</v>
+      </c>
+      <c r="O33" t="s">
+        <v>213</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>281</v>
+      </c>
+      <c r="X33" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>285</v>
+      </c>
+      <c r="J34" t="s">
+        <v>286</v>
+      </c>
+      <c r="K34" t="s">
+        <v>287</v>
+      </c>
+      <c r="L34" t="s">
+        <v>288</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>280</v>
+      </c>
+      <c r="O34" t="s">
+        <v>133</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>289</v>
+      </c>
+      <c r="X34" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>292</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>293</v>
+      </c>
+      <c r="J35" t="s">
+        <v>294</v>
+      </c>
+      <c r="K35" t="s">
+        <v>295</v>
+      </c>
+      <c r="L35" t="s">
+        <v>296</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>297</v>
+      </c>
+      <c r="X35" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>301</v>
+      </c>
+      <c r="J36" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>305</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>306</v>
+      </c>
+      <c r="X36" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>310</v>
+      </c>
+      <c r="J37" t="s">
+        <v>311</v>
+      </c>
+      <c r="K37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s">
+        <v>313</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>314</v>
+      </c>
+      <c r="X37" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>318</v>
+      </c>
+      <c r="J38" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L38" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>322</v>
+      </c>
+      <c r="O38" t="s">
+        <v>133</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>323</v>
+      </c>
+      <c r="X38" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>327</v>
+      </c>
+      <c r="J39" t="s">
+        <v>328</v>
+      </c>
+      <c r="K39" t="s">
+        <v>329</v>
+      </c>
+      <c r="L39" t="s">
+        <v>330</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>322</v>
+      </c>
+      <c r="O39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>323</v>
+      </c>
+      <c r="X39" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>332</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>333</v>
+      </c>
+      <c r="J40" t="s">
+        <v>334</v>
+      </c>
+      <c r="K40" t="s">
+        <v>335</v>
+      </c>
+      <c r="L40" t="s">
+        <v>336</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>322</v>
+      </c>
+      <c r="O40" t="s">
+        <v>133</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>323</v>
+      </c>
+      <c r="X40" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>338</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>339</v>
+      </c>
+      <c r="J41" t="s">
+        <v>340</v>
+      </c>
+      <c r="K41" t="s">
+        <v>341</v>
+      </c>
+      <c r="L41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>343</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>344</v>
+      </c>
+      <c r="X41" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>347</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>352</v>
+      </c>
+      <c r="O42" t="s">
+        <v>133</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>353</v>
+      </c>
+      <c r="X42" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>356</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>357</v>
+      </c>
+      <c r="J43" t="s">
+        <v>358</v>
+      </c>
+      <c r="K43" t="s">
+        <v>359</v>
+      </c>
+      <c r="L43" t="s">
+        <v>360</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>352</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>361</v>
+      </c>
+      <c r="X43" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>364</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>365</v>
+      </c>
+      <c r="J44" t="s">
+        <v>366</v>
+      </c>
+      <c r="K44" t="s">
+        <v>367</v>
+      </c>
+      <c r="L44" t="s">
+        <v>368</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>369</v>
+      </c>
+      <c r="O44" t="s">
+        <v>133</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>370</v>
+      </c>
+      <c r="X44" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>373</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>374</v>
+      </c>
+      <c r="J45" t="s">
+        <v>375</v>
+      </c>
+      <c r="K45" t="s">
+        <v>376</v>
+      </c>
+      <c r="L45" t="s">
+        <v>377</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>369</v>
+      </c>
+      <c r="O45" t="s">
+        <v>133</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>370</v>
+      </c>
+      <c r="X45" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>379</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>380</v>
+      </c>
+      <c r="J46" t="s">
+        <v>381</v>
+      </c>
+      <c r="K46" t="s">
+        <v>382</v>
+      </c>
+      <c r="L46" t="s">
+        <v>383</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>369</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>384</v>
+      </c>
+      <c r="X46" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>387</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>388</v>
+      </c>
+      <c r="J47" t="s">
+        <v>389</v>
+      </c>
+      <c r="K47" t="s">
+        <v>390</v>
+      </c>
+      <c r="L47" t="s">
+        <v>391</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>392</v>
+      </c>
+      <c r="X47" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>395</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>396</v>
+      </c>
+      <c r="J48" t="s">
+        <v>389</v>
+      </c>
+      <c r="K48" t="s">
+        <v>397</v>
+      </c>
+      <c r="L48" t="s">
+        <v>398</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>392</v>
+      </c>
+      <c r="X48" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>400</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>401</v>
+      </c>
+      <c r="J49" t="s">
+        <v>402</v>
+      </c>
+      <c r="K49" t="s">
+        <v>403</v>
+      </c>
+      <c r="L49" t="s">
+        <v>404</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>405</v>
+      </c>
+      <c r="O49" t="s">
+        <v>133</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>392</v>
+      </c>
+      <c r="X49" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>407</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>408</v>
+      </c>
+      <c r="J50" t="s">
+        <v>409</v>
+      </c>
+      <c r="K50" t="s">
+        <v>410</v>
+      </c>
+      <c r="L50" t="s">
+        <v>411</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>412</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>413</v>
+      </c>
+      <c r="X50" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>416</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>417</v>
+      </c>
+      <c r="J51" t="s">
+        <v>418</v>
+      </c>
+      <c r="K51" t="s">
+        <v>419</v>
+      </c>
+      <c r="L51" t="s">
+        <v>420</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>412</v>
+      </c>
+      <c r="O51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>413</v>
+      </c>
+      <c r="X51" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>422</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>423</v>
+      </c>
+      <c r="J52" t="s">
+        <v>424</v>
+      </c>
+      <c r="K52" t="s">
+        <v>425</v>
+      </c>
+      <c r="L52" t="s">
+        <v>426</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>427</v>
+      </c>
+      <c r="O52" t="s">
+        <v>133</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>428</v>
+      </c>
+      <c r="X52" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>431</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>432</v>
+      </c>
+      <c r="J53" t="s">
+        <v>433</v>
+      </c>
+      <c r="K53" t="s">
+        <v>434</v>
+      </c>
+      <c r="L53" t="s">
+        <v>435</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>427</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>436</v>
+      </c>
+      <c r="X53" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>439</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>440</v>
+      </c>
+      <c r="J54" t="s">
+        <v>441</v>
+      </c>
+      <c r="K54" t="s">
+        <v>442</v>
+      </c>
+      <c r="L54" t="s">
+        <v>443</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>444</v>
+      </c>
+      <c r="O54" t="s">
+        <v>133</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>445</v>
+      </c>
+      <c r="X54" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>447</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>448</v>
+      </c>
+      <c r="J55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K55" t="s">
+        <v>450</v>
+      </c>
+      <c r="L55" t="s">
+        <v>451</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>444</v>
+      </c>
+      <c r="O55" t="s">
+        <v>133</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>445</v>
+      </c>
+      <c r="X55" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>453</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>454</v>
+      </c>
+      <c r="J56" t="s">
+        <v>455</v>
+      </c>
+      <c r="K56" t="s">
+        <v>456</v>
+      </c>
+      <c r="L56" t="s">
+        <v>457</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>458</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>459</v>
+      </c>
+      <c r="X56" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>462</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>463</v>
+      </c>
+      <c r="J57" t="s">
+        <v>464</v>
+      </c>
+      <c r="K57" t="s">
+        <v>465</v>
+      </c>
+      <c r="L57" t="s">
+        <v>466</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>467</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>468</v>
+      </c>
+      <c r="X57" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>471</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>472</v>
+      </c>
+      <c r="J58" t="s">
+        <v>473</v>
+      </c>
+      <c r="K58" t="s">
+        <v>474</v>
+      </c>
+      <c r="L58" t="s">
+        <v>475</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>467</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>476</v>
+      </c>
+      <c r="X58" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>479</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>480</v>
+      </c>
+      <c r="J59" t="s">
+        <v>481</v>
+      </c>
+      <c r="K59" t="s">
+        <v>482</v>
+      </c>
+      <c r="L59" t="s">
+        <v>483</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>484</v>
+      </c>
+      <c r="O59" t="s">
+        <v>133</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>485</v>
+      </c>
+      <c r="X59" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>488</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>489</v>
+      </c>
+      <c r="J60" t="s">
+        <v>490</v>
+      </c>
+      <c r="K60" t="s">
+        <v>491</v>
+      </c>
+      <c r="L60" t="s">
+        <v>492</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>484</v>
+      </c>
+      <c r="O60" t="s">
+        <v>133</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>493</v>
+      </c>
+      <c r="X60" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>496</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>497</v>
+      </c>
+      <c r="J61" t="s">
+        <v>498</v>
+      </c>
+      <c r="K61" t="s">
+        <v>499</v>
+      </c>
+      <c r="L61" t="s">
+        <v>500</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>484</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>493</v>
+      </c>
+      <c r="X61" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>502</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>503</v>
+      </c>
+      <c r="J62" t="s">
+        <v>504</v>
+      </c>
+      <c r="K62" t="s">
+        <v>505</v>
+      </c>
+      <c r="L62" t="s">
+        <v>506</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>507</v>
+      </c>
+      <c r="O62" t="s">
+        <v>133</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>508</v>
+      </c>
+      <c r="X62" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>511</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>512</v>
+      </c>
+      <c r="J63" t="s">
+        <v>513</v>
+      </c>
+      <c r="K63" t="s">
+        <v>514</v>
+      </c>
+      <c r="L63" t="s">
+        <v>515</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>507</v>
+      </c>
+      <c r="O63" t="s">
+        <v>133</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>516</v>
+      </c>
+      <c r="X63" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>519</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>520</v>
+      </c>
+      <c r="J64" t="s">
+        <v>521</v>
+      </c>
+      <c r="K64" t="s">
+        <v>522</v>
+      </c>
+      <c r="L64" t="s">
+        <v>523</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>507</v>
+      </c>
+      <c r="O64" t="s">
+        <v>133</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>524</v>
+      </c>
+      <c r="X64" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>527</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>528</v>
+      </c>
+      <c r="J65" t="s">
+        <v>529</v>
+      </c>
+      <c r="K65" t="s">
+        <v>530</v>
+      </c>
+      <c r="L65" t="s">
+        <v>531</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>516</v>
+      </c>
+      <c r="X65" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>533</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>534</v>
+      </c>
+      <c r="J66" t="s">
+        <v>535</v>
+      </c>
+      <c r="K66" t="s">
+        <v>536</v>
+      </c>
+      <c r="L66" t="s">
+        <v>537</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>538</v>
+      </c>
+      <c r="O66" t="s">
+        <v>133</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>539</v>
+      </c>
+      <c r="X66" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>542</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>543</v>
+      </c>
+      <c r="J67" t="s">
+        <v>544</v>
+      </c>
+      <c r="K67" t="s">
+        <v>545</v>
+      </c>
+      <c r="L67" t="s">
+        <v>546</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>538</v>
+      </c>
+      <c r="O67" t="s">
+        <v>133</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>539</v>
+      </c>
+      <c r="X67" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>548</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>549</v>
+      </c>
+      <c r="J68" t="s">
+        <v>550</v>
+      </c>
+      <c r="K68" t="s">
+        <v>551</v>
+      </c>
+      <c r="L68" t="s">
+        <v>552</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>553</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>554</v>
+      </c>
+      <c r="X68" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>557</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>558</v>
+      </c>
+      <c r="J69" t="s">
+        <v>559</v>
+      </c>
+      <c r="K69" t="s">
+        <v>560</v>
+      </c>
+      <c r="L69" t="s">
+        <v>561</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>553</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>562</v>
+      </c>
+      <c r="X69" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>565</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>566</v>
+      </c>
+      <c r="J70" t="s">
+        <v>567</v>
+      </c>
+      <c r="K70" t="s">
+        <v>568</v>
+      </c>
+      <c r="L70" t="s">
+        <v>569</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>570</v>
+      </c>
+      <c r="X70" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>573</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>574</v>
+      </c>
+      <c r="J71" t="s">
+        <v>575</v>
+      </c>
+      <c r="K71" t="s">
+        <v>576</v>
+      </c>
+      <c r="L71" t="s">
+        <v>577</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>578</v>
+      </c>
+      <c r="O71" t="s">
+        <v>213</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>579</v>
+      </c>
+      <c r="X71" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>582</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>583</v>
+      </c>
+      <c r="J72" t="s">
+        <v>575</v>
+      </c>
+      <c r="K72" t="s">
+        <v>584</v>
+      </c>
+      <c r="L72" t="s">
+        <v>585</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>579</v>
+      </c>
+      <c r="X72" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>587</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>588</v>
+      </c>
+      <c r="J73" t="s">
+        <v>589</v>
+      </c>
+      <c r="K73" t="s">
+        <v>590</v>
+      </c>
+      <c r="L73" t="s">
+        <v>591</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>592</v>
+      </c>
+      <c r="X73" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>595</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>596</v>
+      </c>
+      <c r="J74" t="s">
+        <v>597</v>
+      </c>
+      <c r="K74" t="s">
+        <v>598</v>
+      </c>
+      <c r="L74" t="s">
+        <v>599</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>600</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>601</v>
+      </c>
+      <c r="J75" t="s">
+        <v>602</v>
+      </c>
+      <c r="K75" t="s">
+        <v>603</v>
+      </c>
+      <c r="L75" t="s">
+        <v>604</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>605</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>606</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>607</v>
+      </c>
+      <c r="J76" t="s">
+        <v>608</v>
+      </c>
+      <c r="K76" t="s">
+        <v>609</v>
+      </c>
+      <c r="L76" t="s">
+        <v>610</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>605</v>
+      </c>
+      <c r="O76" t="s">
+        <v>133</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>611</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>612</v>
+      </c>
+      <c r="J77" t="s">
+        <v>613</v>
+      </c>
+      <c r="K77" t="s">
+        <v>603</v>
+      </c>
+      <c r="L77" t="s">
+        <v>614</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>615</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>616</v>
+      </c>
+      <c r="J78" t="s">
+        <v>617</v>
+      </c>
+      <c r="K78" t="s">
+        <v>618</v>
+      </c>
+      <c r="L78" t="s">
+        <v>619</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>620</v>
+      </c>
+      <c r="O78" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>622</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>623</v>
+      </c>
+      <c r="J79" t="s">
+        <v>624</v>
+      </c>
+      <c r="K79" t="s">
+        <v>625</v>
+      </c>
+      <c r="L79" t="s">
+        <v>626</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>620</v>
+      </c>
+      <c r="O79" t="s">
+        <v>82</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>628</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>629</v>
+      </c>
+      <c r="J80" t="s">
+        <v>630</v>
+      </c>
+      <c r="K80" t="s">
+        <v>631</v>
+      </c>
+      <c r="L80" t="s">
+        <v>632</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>633</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>634</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>635</v>
+      </c>
+      <c r="J81" t="s">
+        <v>636</v>
+      </c>
+      <c r="K81" t="s">
+        <v>637</v>
+      </c>
+      <c r="L81" t="s">
+        <v>638</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>633</v>
+      </c>
+      <c r="O81" t="s">
+        <v>133</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>639</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>640</v>
+      </c>
+      <c r="J82" t="s">
+        <v>641</v>
+      </c>
+      <c r="K82" t="s">
+        <v>642</v>
+      </c>
+      <c r="L82" t="s">
+        <v>643</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>633</v>
+      </c>
+      <c r="O82" t="s">
+        <v>133</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>644</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>645</v>
+      </c>
+      <c r="J83" t="s">
+        <v>646</v>
+      </c>
+      <c r="K83" t="s">
+        <v>647</v>
+      </c>
+      <c r="L83" t="s">
+        <v>648</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>649</v>
+      </c>
+      <c r="O83" t="s">
+        <v>133</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>651</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>652</v>
+      </c>
+      <c r="J84" t="s">
+        <v>653</v>
+      </c>
+      <c r="K84" t="s">
+        <v>654</v>
+      </c>
+      <c r="L84" t="s">
+        <v>655</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>649</v>
+      </c>
+      <c r="O84" t="s">
+        <v>133</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>656</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>657</v>
+      </c>
+      <c r="J85" t="s">
+        <v>658</v>
+      </c>
+      <c r="K85" t="s">
+        <v>659</v>
+      </c>
+      <c r="L85" t="s">
+        <v>660</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>661</v>
+      </c>
+      <c r="O85" t="s">
+        <v>63</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>662</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>663</v>
+      </c>
+      <c r="J86" t="s">
+        <v>664</v>
+      </c>
+      <c r="K86" t="s">
+        <v>665</v>
+      </c>
+      <c r="L86" t="s">
+        <v>666</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>667</v>
+      </c>
+      <c r="O86" t="s">
+        <v>63</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>668</v>
+      </c>
+      <c r="X86" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>671</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>672</v>
+      </c>
+      <c r="J87" t="s">
+        <v>673</v>
+      </c>
+      <c r="K87" t="s">
+        <v>674</v>
+      </c>
+      <c r="L87" t="s">
+        <v>675</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>676</v>
+      </c>
+      <c r="O87" t="s">
+        <v>63</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>668</v>
+      </c>
+      <c r="X87" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>678</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>679</v>
+      </c>
+      <c r="J88" t="s">
+        <v>680</v>
+      </c>
+      <c r="K88" t="s">
+        <v>681</v>
+      </c>
+      <c r="L88" t="s">
+        <v>682</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>683</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>668</v>
+      </c>
+      <c r="X88" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>685</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>686</v>
+      </c>
+      <c r="J89" t="s">
+        <v>687</v>
+      </c>
+      <c r="K89" t="s">
+        <v>688</v>
+      </c>
+      <c r="L89" t="s">
+        <v>689</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>690</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>691</v>
+      </c>
+      <c r="X89" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>694</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>695</v>
+      </c>
+      <c r="J90" t="s">
+        <v>696</v>
+      </c>
+      <c r="K90" t="s">
+        <v>697</v>
+      </c>
+      <c r="L90" t="s">
+        <v>698</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>699</v>
+      </c>
+      <c r="O90" t="s">
+        <v>133</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>701</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>702</v>
+      </c>
+      <c r="J91" t="s">
+        <v>703</v>
+      </c>
+      <c r="K91" t="s">
+        <v>704</v>
+      </c>
+      <c r="L91" t="s">
+        <v>705</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>707</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>708</v>
+      </c>
+      <c r="J92" t="s">
+        <v>709</v>
+      </c>
+      <c r="K92" t="s">
+        <v>710</v>
+      </c>
+      <c r="L92" t="s">
+        <v>711</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>712</v>
+      </c>
+      <c r="O92" t="s">
+        <v>133</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>39243</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>713</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>714</v>
+      </c>
+      <c r="J93" t="s">
+        <v>715</v>
+      </c>
+      <c r="K93" t="s">
+        <v>716</v>
+      </c>
+      <c r="L93" t="s">
+        <v>717</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>718</v>
+      </c>
+      <c r="O93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>717</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_120.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_120.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="808">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>SmallyC</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Hotel currently renovating but they’re only replacing carpet. The food was just ok. My room/suite had huge hole in curtain. The workout room was closed. If you just need place to lay head then it’ll get the job done.More</t>
   </si>
   <si>
+    <t>chefdartagnan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r560299890-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>weirdovisitingplaces</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r550515700-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>J124YDjulier</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r536693355-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>This was so convenient. The Airport Shuttle drops you off from LAX. We reserved a room so it was waiting for us. The beds were super comfy and it is very quiet considering Hwy 14 is nearby. Marie Calendars is within walking distance down the road if you need lunch or dinner. The hotel breakfast included, was beyond my expectations with eggs, sausage, potatoes, oatmeal, etc. etc. to choose from. The staff were all very nice and helpful.  This is our go-to hotel when traveling out of LAX or if for some reason we need to be in the Lancaster-Palmdate area for more than the day. You can't beat this for the price.More</t>
   </si>
   <si>
+    <t>LDM52</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r532029140-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>Large group of us stayed here in September on a Tuesday night as we had a tour of Edward's Air Force Base scheduled for 9 a.m. Wednesday morning.  Staff very friendly and helpful.  Had to have our room keys redone twice.  The place was clean, and very conveniently located by freeway.  Went walking early in the morning and felt relatively safe walking around the block.  Lot's of other hotels in the area.  The equipment in the small gym does not work though which was a disappointment but I was able to walk. They did have set up in the lobby area dispensers which cold lemon water and cold lemonade - complementary which was a very nice touch.  Some fresh cookies would have added to that.  The breakfast room is small and average.More</t>
   </si>
   <si>
+    <t>68traveler1240</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r530274733-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>Friendly staff, clean &amp; quiet room.  Reasonable priced.  Breakfast was not included.If you wanted breakfast, it was an additional cost.  Not bad considering that youspend just as much or more if you went out to eat.  My compliments to Jackie, she took care of the breakfast room.  Did a great job.More</t>
   </si>
   <si>
+    <t>Lucian M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r517582454-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>I choose this hotel because was the cheaper one available late on night! The price was high but I understand why..because all area in Lancaster was full. The property looks kinda dirty in the back parking lot,many homeless people was closer to the parking lot.I didn't sleep that well because I always have to check my car by the window.the room looks good ,but had hair and smell like "pee" from dog or cat.I reported at the desk but they just spray with air freshener ....still not enough.Next time I will be aware what room I will have,deffinelly not pet room.</t>
   </si>
   <si>
+    <t>Tommy Jackie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r500330757-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
     <t>I just recently stayed there have to say the beds are comfortable the rooms are spacious very clean the staff were wonderful in getting anything and everything we needed help with. Our room was clean when we asked I believe I remember her name as Lisa Marie she was awesome the room was clean neat and she did everything we asked her to do very friendly and she really knows what she's doing because of her I will be returningMore</t>
   </si>
   <si>
+    <t>810taylor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r497705312-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -360,6 +387,9 @@
     <t>The staff was friendly and professional but the room could have been better. In order to conserve water you are asked to use your towels for three days. This a high desert area but if they are concerned about conservation  they should not have located here. Their concern for the use of water could explain the large dirty spots on the carpet. The use of electronic devices is apparently discouraged too as the telephone was inoperative and the free wifi was spotty at best. When I called on my cell to see if something could be done about the wifi I was given a 1-800 number which was no help. Lastly, I guess it is company policy to have an air conditioner that is loud since we ran into this problem before. We are done with this chain. More</t>
   </si>
   <si>
+    <t>naalehuretiree</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r491634803-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -381,6 +411,9 @@
     <t>The room is large and the bed is comfortable. Too bad the chairs in the front lobby have tears in them (they all do), the carpets in the hall and the rooms are stained, and the elevator has seen better days.  It really is sub-par for a Comfort Inn. And the guy who took my reservation told me that the property had been updated. Not sure if we were talking about the same place.The lady at the front desk was very pleasant.More</t>
   </si>
   <si>
+    <t>Cleo20132013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r487421285-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -402,6 +435,9 @@
     <t>Stayed in Jefferson Room. Very nice 2 room suite with gas fireplace and balcony. Wish we could have stayed several nights. Didn't have an opportunity to really enjoy the room. Good breakfast. Internet kept dropping and came right back up. Notified front desk manager about internet. Good bed covers, not the lightweight flimsy things other Choice hotels are calling blankets. Recommendations: put light near couch as there isn't an overhead light.   Put larger TV monitors on walk in both rooms. Current monitors are small for room size.More</t>
   </si>
   <si>
+    <t>MEma26qts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r483539105-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -423,6 +459,9 @@
     <t>Loved this place! Great bed, pretty tile floor, nice amenities. Very nice staff &amp; service! They are about to remodel the whole hotel soo, can't wait to see that. Yes, the wallpaper was old, however, who really cares! Great bed, nice air conditioning, what more is there to want... Internet was a little slow as well. Can't wait to come visit this hotel again... Yelp reviews were bad, but not as recent &amp; I loved our stay! Give it a chance! You'll be glad you did...:)More</t>
   </si>
   <si>
+    <t>drhodes227</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r475686867-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -444,6 +483,9 @@
     <t>My dad, sister and I stayed at this hotel for a week while sight-seeing and visiting family in the Lancaster area.  We were super impressed with the friendliness and efficiency of all the entire staff:  What a GREAT VALUE!  We were very surprised of the amazing breakfast provided. best I've seen during my travels.  Lisa was kind enough to give us to tickets to the Opening Day of the local Jethawks baseball game and we had a blast.  Everyone was so nice and accomadating.  When staying in Lancaster CA...I would definitely select Comfort Inn and Suites again and again.  KUDOS  to then entire staff for such an AMAZING STAY....Thanx so much...The Ohio girls, Denise and Sherry and their Dad..Tom............More</t>
   </si>
   <si>
+    <t>LaoTou</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r471535085-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -465,6 +507,9 @@
     <t>I really wanted to love this hotel.  The front desk was wonderful. The room was clean.  The beds were comfortable.  Breakfast was very good.  But...the reading lamp was missing both its bulbs;  the sink had hot and cold reversed--especially bad because the hot water is scalding; the robe hook was missing in the bathroom; the curtain was torn; and the WiFi was useless.  The front desk was great but where was maintenance?More</t>
   </si>
   <si>
+    <t>DudeWithGlasses</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r470720367-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -486,6 +531,9 @@
     <t>Stayed here twice. First time was a regular room. It wasn't bad, and had a comfy bed. The second time was in a suite. The suites are def nicer. The wifi is overall spotty at best and kept kicking off my devices. The ac in the rooms are turned off so the rooms are a bit hot upon arrival and takes a bit to cool down. Peter at the front desk is quite nice and makes sure each guest feels welcome. The hotel does offer a free hot breakfast and continental breakfast, both were quite good, just don't talk to the lady running the running room as she would rather sit on her phone. Wifi kind of makes this place a deal breaker for a business person, overall good stayMore</t>
   </si>
   <si>
+    <t>Jen Knarr S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r456193675-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -507,6 +555,9 @@
     <t>Very nice hotel that is well maintained.  Our room was clean, the staff was friendly and super nice.  We were able to get a late check out which was very helpful.  I felt it was a little pricey and they didn't offer a military discount.More</t>
   </si>
   <si>
+    <t>lisaKearney</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r448934216-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -534,6 +585,9 @@
     <t>No one likes being in a hotel on thanksgiving with your kids. We had no choice this year. Lisa from the front dest made THANKSGIVING dinner for the whole hotel. It was so nice. She went above and beyond to make it feel like home. The rooms were clean and beds were great... More</t>
   </si>
   <si>
+    <t>Arturo C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r442142118-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -552,6 +606,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Andy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r436386400-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -573,6 +630,9 @@
     <t>The Comfort Inn is an attractive lodging choice in Lancaster. Visible from the highway, but not as easy to find (thank you, Apple Maps!). We've stayed here before and we're back again.Reception was very friendly and there's an elevator to all 3 floors. Rooms are spacious and well appointed. Everything works, except the shower curtain (design flaw- as people hang towels on it, it sags and then the shower curtain slides down to the center).The refrigerator could have used a bigger (and separate) freezer, but it's OK.The big shortcoming was the awful WiFi. Bad last year and not any better this year. There is an option to plug ethernet right into your computer and next year I'll bring a cord and try this.We've used the pool in the past (spa is nice and hot, pool this time of the year is "brisk") but not this year.Good breakfast with hot and cold eggs and breakfast meat. Good coffee!We'll be back (with an ethernet cord).More</t>
   </si>
   <si>
+    <t>Rhedah I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r436189128-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -597,6 +657,9 @@
     <t>Thank you Jessica! Upon checking in I was very road  weary, and in need of sleep. Jessica assisted me in a rapid check in. And for honoring that I'm a travel nurse at local hospital. Great cozy beds, rooms clean and smoke free.Great location!Thanks for assisting me in my extension and customer service above and beyond! Greatly appreciated!Rhedah Ingram RN More</t>
   </si>
   <si>
+    <t>michael z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r432830219-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -621,6 +684,9 @@
     <t>I had a great stay at the comfort inn. Great room with a comfortable bed and a nice clean shower, i would recommend this hotel to my friends and colleges as i travel. Lisa was the standout of the staff she did an excellent job!More</t>
   </si>
   <si>
+    <t>chousemft</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r430078143-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -639,6 +705,9 @@
     <t>I called this hotel looking for pet-friendly accommodations. My experience over the phone was quite lovely.  I found Ms.Jessica professional, very friendly, courteous and helpful.  She was approachable and interested.  Good service, responsive and genuine staff persons make this hotel very special.More</t>
   </si>
   <si>
+    <t>luv2travelkw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r419985344-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -669,6 +738,9 @@
     <t>Staff here is wonderful - so friendly and helpful!! Rooms are OK for a short stay and the breakfast is nice. Convenient location - short drive to freeway and restaurants. Would stay here again if in the area.More</t>
   </si>
   <si>
+    <t>dmolross</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r419160935-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -693,6 +765,9 @@
     <t>I traveled with my 15 year old daughter &amp; 6 year old son for a reunion. The suite was spacious, just perfect, close to the back stairs and pool. I love how the bedroom had a door to close off for privacy. Plenty of towels and blankets.TV in the bedroom and living area. Microwave and Mini Fridge. We were local to everything. We did not take advantage of the breakfast (slept in late) or the pool (busy at the reunion) but both looked great. Check in/Check out was seamless.More</t>
   </si>
   <si>
+    <t>Jeff M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r403647073-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -720,6 +795,9 @@
     <t>Good location. Ask for a room on the West end to avoid freeway noise. Have a pool and spa along with a hot breakfast including waffles. Rooms are very large. Free parking and wi-fi. Have stayed multiple times and they are always consistently good with clean rooms. More</t>
   </si>
   <si>
+    <t>kkingsbury25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r399756830-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -744,6 +822,9 @@
     <t>We stayed here on a busy weekend for a soccer tournament and When Esther checked us in, she made sure we had all the information we needed for the busy weekend. From Food to Entertainment she made sure that we had all of our information. She even made sure we has all of the extra towels and pillows that we needed. Thank you Esther for making our stay one to remember.More</t>
   </si>
   <si>
+    <t>Jamie Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r396991789-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -762,6 +843,9 @@
     <t>Friendly staffs with comfortable room for a night stay on business trip. There's free wifi, mini-ref, microwave oven and nice flat screen TV. Good location and short distance from the freeway. I didn't notice restaurants near the area even though there are other motels and hotels nearby. Good restaurants are about 5 miles away at Antelope Valley Mall. Looks like a place for contractors to stay. Free breakfast but not much that pleased me.More</t>
   </si>
   <si>
+    <t>lrivas730</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r394663677-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -780,6 +864,9 @@
     <t>I always enjoy staying here during my quarterly business trips, this place rocks!  they have an awesome continental breakfast, super friendly staff and a house keeping crew that goes above and beyond their customers needs! one in particular who always makes sure I have everything I need, like the day I ran out of towels OMG.. she came to my rescue with no delays..  THANK YOU CYNTHIA!!More</t>
   </si>
   <si>
+    <t>Duane A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r394525051-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -798,6 +885,9 @@
     <t>Clean, well appointed, friendly and helpful staff. A lot of variety at breakfast such as eggs, potatoes, sausage patties, waffles, fruit, yogurt, hot oatmeal, cold cereal and the typical bread, muffins, coffee and extras.  We had the King bed for the same price as two queens. Lots of room, adjustable shower head, quiet motel which I would definitely recommend.More</t>
   </si>
   <si>
+    <t>jesslozano</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r393362479-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -816,6 +906,9 @@
     <t>This is a Very clean and well put together. My house keeper cynthia was well mannered and gave excellent service very respectful. I recommend this hotel to all my friends and family. I will be returing here in the future. Breakfast was very good. More</t>
   </si>
   <si>
+    <t>jaltaman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r350278694-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -843,6 +936,9 @@
     <t>This is a nice hotel. The rooms were large and very clean and the bed was super comfy. I slept great. There was plenty of counter space in the bathroom and there were outlets where you want them. The breakfast was the standard fare but was also nicely done. We will stay here again.More</t>
   </si>
   <si>
+    <t>Martha P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r345934301-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -870,6 +966,9 @@
     <t>I stay at this hotel every now and then and I always have a nice, relaxing, comfortable time. It's always quiet and the staff is always friendly and helpful! I would definitely recommend this hotel to my friends and family or anyone looking for a nice place to stay!More</t>
   </si>
   <si>
+    <t>mtorrey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r341664479-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -894,6 +993,9 @@
     <t>Hello,I recently had the pleasure of staying at the Comfort Inn in Lancaster, California, My Check in was an experience in its own,I was happily greeted upon arrival,informed of all the Inns amenities, Breakfast from 6AM to 9AM,weight room,jacuzzi,dry sauna,where the elevators and ice machine were at,then explained where exactly my room was,how many times have we all been even shown on a map where are room was and ALWAYS got lost in the North Forty somewhere! I found my room easy enough, WOW! What a nice comfortable room,everything was there I needed,there were even plenty of Electric plug in for all my gizmos n gadgets. The bathroom and overall appearance was pleasing and above all Clean and modern,the tv was great and the control worked easily for this Weary Traveler,  my room came with a microwave and mini refrigerator for all my goodies and they worked! Ooooooooo Aaaaaahh! I slept like a baby,Quiet and my Serta Mattress was beyond cozy and comfortable ,I hated having to get up,now here is something I found really cool,How many times have we all gotten up in the middle of the night and tripped and stumbled our way to the bathroom?We All Have, Now my friends the people at The Comfort Inn in Lancaster California have a Nite light built into the outside vanity electrical outlet adjacent to the bathroom  with plenty of shampoo,conditioner and hand cream ,then even in the bathroom itself...Hello,I recently had the pleasure of staying at the Comfort Inn in Lancaster, California, My Check in was an experience in its own,I was happily greeted upon arrival,informed of all the Inns amenities, Breakfast from 6AM to 9AM,weight room,jacuzzi,dry sauna,where the elevators and ice machine were at,then explained where exactly my room was,how many times have we all been even shown on a map where are room was and ALWAYS got lost in the North Forty somewhere! I found my room easy enough, WOW! What a nice comfortable room,everything was there I needed,there were even plenty of Electric plug in for all my gizmos n gadgets. The bathroom and overall appearance was pleasing and above all Clean and modern,the tv was great and the control worked easily for this Weary Traveler,  my room came with a microwave and mini refrigerator for all my goodies and they worked! Ooooooooo Aaaaaahh! I slept like a baby,Quiet and my Serta Mattress was beyond cozy and comfortable ,I hated having to get up,now here is something I found really cool,How many times have we all gotten up in the middle of the night and tripped and stumbled our way to the bathroom?We All Have, Now my friends the people at The Comfort Inn in Lancaster California have a Nite light built into the outside vanity electrical outlet adjacent to the bathroom  with plenty of shampoo,conditioner and hand cream ,then even in the bathroom itself there's a built in nite lite,That is so cool n smart .The breakfast was Great and All the staff were kind and courteous and made you feel at home not like you were imposing on them,there were plenty of brochures of local attractions in the surrounding locals.So if your ever in the area or even passing through Beautiful Lancaster California, Please stay at the  Beautiful ,modern Comfort Inn it is centrally located close to the 14 freeway  remember to Exit Avenue J,right at the Valero gas station it's located on the right side of the street and (you don't have to use map quest to find it)and it's close by the local Harley Davidson Dealership right Next Door!! And an abundance of restaurants, stores and local businesses to make your stay as Comfortable as The Comfort Inn, see you soon.More</t>
   </si>
   <si>
+    <t>Stanley C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r315502283-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -918,6 +1020,9 @@
     <t>Very nice hotel and excellent value for the money as well. The rooms were clean and comfortable. Very quiet as well. The hotel staff were friendly and courteous. I would stay here again in the future.More</t>
   </si>
   <si>
+    <t>Taii G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r310985553-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -945,6 +1050,9 @@
     <t>My Stay At Comfort Inn &amp; Suites Was A Great Experience For It Being My First Time.By Being There "ESTHER" Made Me and My Family Feel Welcomed❤ She Is Warm&amp;Inviting , She Greeted Us With Smiles and Answers and Not With Attitudes (Thank You) Housekeeping, and Breakfast Was Excellent.I Strongly Recommend That You Stay At Comfort Inn&amp;Suites More</t>
   </si>
   <si>
+    <t>Dmaniac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r296347722-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -969,6 +1077,9 @@
     <t>We stayed at the hotel for a one night stop over on the way back from Lake Tahoe to LA.  The breakfast was the average comfort inn breakfast and the hotel staff were accommodating if you asked for help, but the property needs some work and remodeling.  The pool lock doesn't work so anyone can walk right in and swim (or drown). The lock on the hotel exterior door closest to the pool didn't work so we had to walk around outside to get in the front door.  The washing machine didn't work so we had to ask for a refund and drive somewhere else to do laundry, the rooms are dated and have a 1970-80ish texture on the ceiling and old wallpaper in the bathrooms.The hotel rate needs to be decreased to the quality level of the hotel.  The rates were something like $115-124, but the hotel is worth only about $75-85 a night with its issues and dated rooms.  We would look into other hotel options next time.  More</t>
   </si>
   <si>
+    <t>pastorlakewood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r282712736-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -996,6 +1107,9 @@
     <t>The Hotel is well located with easy access to the High Way  Then room were clean and roomy  The breakfast was adiquate  we stayed on the first floor and was not disturbed by our side noise  Large baths  RecommendedMore</t>
   </si>
   <si>
+    <t>MrWayne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r279625770-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1012,6 +1126,9 @@
   </si>
   <si>
     <t>This was a last road trip stay before a long drive and I expected little.  The second floor suite (John Jay Suite) had two air conditioners, a wet bar, great selection of TV channels and was in all, the finest room I had during my trip.  Reception desk was friendly and helpful.  Overall, it was a clean and well maintained property and I will definitely stay here again should I need a room in Lancaster.More</t>
+  </si>
+  <si>
+    <t>handywmyn</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r279138167-Comfort_Inn_Suites-Lancaster_California.html</t>
@@ -1034,6 +1151,9 @@
 All...I make a reservation for a king size bed on the top floor.  I get there and check in and Im given a key card for a room on the 3rd floor with a king size bed. UNFORTUNATELY WHEN I GET TO THE ROOM AND GO INSIDE IT HAS SOMEONE'S THINGS IN IT AND OBVIOUSLY OCCUPIED. None to Happy I return to the front desk and am asked to wait while she tells someone there ate No more too.s except a suite. Im like you better make sure I have a room first. While going to the bathroom. I see a man sitting in a room with a sign that says office.  I ask him if he is the manager to which he says Yes.  I tell him about being g given the key to an occupied room.  Well to make a long story short....he was to busy joking and laughing on his phone call to even get I'll and check what was going on.  Finally the chick at the front desk gives me the suite and tells the other guy there are No more rooms.  My room....in the first floor, tiny bed and smells like a smoking room.  The manager still laughing on the phone and I am totally pissed.  All I can say.  HAMPTON INNS in this area extremely better than this place.  I let my choice priveleges membership come before my preference first being treated Well.   All I can say.....if I found out someone had been given keys to my room and free access time my personal property.  I would be screaming for the po po!More</t>
   </si>
   <si>
+    <t>Nebtravler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r263127366-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1061,6 +1181,9 @@
     <t>When traveling with dogs it is always hard to find a decent place to stay. The Lancaster/Palmdale area is not a good area for being dog friendly. This hotel is decent and charged $30 which was MUCH less than the other options and they did not limit pets to cat size. We will most likely stay here again. The rooms were average for cleanliness and amenities. The location is close to the interstate and lots of eating and shopping.More</t>
   </si>
   <si>
+    <t>IronMerMayden</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r257571634-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1088,6 +1211,9 @@
     <t>This is a nice little place to stay.  Clean rooms, quiet, complimentary breakfast and wi-fi.  I suggest a top floor, as with anywhere you go.  Nothing bad I can say about it, so all good.  Mini-fridge, TV and all your basic needs.More</t>
   </si>
   <si>
+    <t>237peg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r255476063-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1112,6 +1238,9 @@
     <t>Was disappointed with my experience.  Front desk was often vacant or you had to wait for help for a long period of time.  They were ofte outside smoking.  Cleanliness was an issue.  We had a sock on the floor when we arrived which meant it hadn't neen cleaned up from the last person. Hallways and stairs had not been vacuumed or swept in the three days we stayed.  Food remained on the floor the entire time.More</t>
   </si>
   <si>
+    <t>Brad H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r240237583-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1139,6 +1268,9 @@
     <t>It was a fairly normal Comfort Inn in a suburban setting. My bathroom wall featured a very large black hair that I'm not sure how the staff could have missed. It does have Showtime and HBO and a fridge in the old school rooms. The bed is standard for the chain and you are within 10 minutes of Lancaster's not so finished downtown area. The pool has a weird sign, but otherwise you could do worse for a night.More</t>
   </si>
   <si>
+    <t>Donald L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r239546468-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1181,6 +1313,9 @@
     <t>We stayed here last year because it's close to a relative. So we tried it again and found it just as nice as last year.Not sure how they get housekeeping to do all those folds, but we enjoy the special treatment to the facial tissue, toilet paper and towels. Rooms have plenty of space and are newly carpeted and very clean. We enjoy the assortment of pillows because I like a soft one and my wife differs.There is a nice fitness room/laundry and an outdoor pool. The spa is plenty hot (hard to find), but the pool is "brisk." Felt good after a long day of driving.Plenty to eat at breakfast - eggs (hard boiled and scrambled), sausage, potatoes, biscuits 'n gravy, waffles - lots of good things. Even though our room faced the freeway, it was quiet and we got some good sleep. The hotel is close to restaurants and stores - conveniently located. We'll be back next year.More</t>
   </si>
   <si>
+    <t>catraveller2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r210206374-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1205,6 +1340,9 @@
     <t>Great service and very clean and spacious rooms! Very friendly staff n good breakfast! Centrally located . We really enjoyed the pool n had a great time. Management was very accommodating as we had some issues.More</t>
   </si>
   <si>
+    <t>E G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r210201240-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1220,6 +1358,9 @@
     <t>Very clean &amp; convenient hotel,Accessible location,Friendly staff,Clean rooms, Good shuttle service,Very good free breakfast,Good clean pool,Good rates,I will definitely recommend to friend &amp; come backMore</t>
   </si>
   <si>
+    <t>G S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r210035512-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1241,6 +1382,9 @@
     <t>The plusses for the hotel are its location and comfortable beds. Some things have been updated but more attention could be placed on repair and replacing worn items. Cleanliness was also average. The room was not dirty and I felt comfortable staying in it but could have been cleaner. The breakfast was also average. Not much to brag about. The dining room was way too small. We ended up squeezing thru to retrieve items and then retreated back to our room. There were only two luggage carts. On a week when the hotel was completely booked these last two items mattered greatly. I guess the price we paid was ok for this area and cheaper than many other choices but I would never pay this much for this type of hotel in other areas.More</t>
   </si>
   <si>
+    <t>Pherby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r207937624-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1268,6 +1412,9 @@
     <t>Beds were too hard for my taste.  Am accustomed to pillowtop mattresses.  Arrived and there was a leftover washcloth hanging from the shower stall from the previous renter, in addition to a large dead roach on the bathroom floor.  Hotel was very close to soccer fields, so that was a plus.  Breakfast was nice.More</t>
   </si>
   <si>
+    <t>Mark S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r206636671-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1286,6 +1433,9 @@
     <t>I never know when I will be in Lancaster, CA, but I have the front desk phone # and call when I need a room. The front desk, knows me by name and has a room waiting for me, when I get to Lancaster, I feel its as close to home as one can get. Esther Medrano, at the front desk, takes good care of the customers. There is no other place I would stay in Lancaster, CA.More</t>
   </si>
   <si>
+    <t>Jon S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r203476069-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1313,6 +1463,9 @@
     <t>I travel for work... and sometimes I need to quickly use a computer on the go. The staff allowed me to use the computer and helped me get what I needed to do done.   Some hotels act say the computer is for "guests only" and treat potential customers like trespassers.  Comfort Inn and Suites in Lancaster treated me like a guest... If they treat visitors this well, I'm sure they treat guests equally well, and I'd recommend them to anyone.  Actions speak louder than words.. and Comfort Inn acted like a hotel should.More</t>
   </si>
   <si>
+    <t>TerryPearson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r199923799-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1337,6 +1490,9 @@
     <t>This hotel delivers what travelers expect from a Comfort Inn: clean rooms, comfortable beds, and watchable TV with a decent selection of channels. (While this hotel has "Inn" in its name, it does not have an on-site restaurant.) The weakness here: poor lighting. Our room had one wall lamp between the beds and one over the vanity - that's it. No floor lamps and no light anywhere near the work desk. This suggests a somewhat careless attitude on the part of staff. Touch-typing mandatory!     The included breakfast had somewhat limited choices and wasn't well-organized.More</t>
   </si>
   <si>
+    <t>Charles C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r199254531-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1361,6 +1517,9 @@
     <t>I loved the Suites in this hotel, very large, quiet and clean. I am only in Lancaster once in 2 month period but I will make this my hotel from here on out. The staff is excellent and very accommodating. I made a mistake on my reservation and Esther Medrano took care of it and me. She has been in Lancaster/Palmdale area for a long time and can help you get around town.More</t>
   </si>
   <si>
+    <t>MHBtrip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r197388612-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1379,6 +1538,9 @@
     <t>I am often in Lancaster on business and stay at this hotel every time.  The staff is really good and they accommodate pets.  Esther Medrano - at the front desk is super.  She knows when I am running late and has my bill ready when I get to the front desk!  Adrianna in the dining area is very nice and very friendly - and also pays attention to what customers need.  All in all, you will find this hotel, clean ,comfortable and quiet - with great staff....More</t>
   </si>
   <si>
+    <t>SoCalSuzi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r192264136-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1433,6 +1595,9 @@
     <t>We have relatives in Palmdale and this was close - so we gave it a try. It's easy to get to (just off the freeway and close to an exit), is attractive and well tended. Reception was friendly and our room was very nice. There is an elevator, so upper floors are easy to get to. Stairways are wide, carpeted and convenient as well.Our room was clean, well decorated and had a nice desk for computer work. It came with a refrigerator, microwave and a single-cup coffee maker. The maid left a nice fold on the toilet paper and the amenities were attractively laid out - nice touch! We started to sleep with the window open, but the freeway noise was too loud - A/C and vent worked well and provided some "white noise" for a good night's sleep.We liked the breakfast - plenty to choose from. Scrambled eggs, boiled eggs, sausage, biscuits and gravy, yogurt and the usual carbs and sugar.It features an outdoor pool and spa with pool towels. The spa was plenty hot (felt great!) and the pool is "brisk," at least in November.We thought it was a very good value. The night before we stayed at a Super 8 in Corning, CA - paid more and got less. We'll stay here again when visiting relatives next year.More</t>
   </si>
   <si>
+    <t>SpeedwayCJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r184644978-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1457,6 +1622,9 @@
     <t>Stayed at this location for two nights while attending a vintage racing event at Willow Springs Raceway.  The hotel was generally clean with comfortable beds and plenty of space in the room. Bathroom setup was a bit odd, with the shower and toilet in a separate room, but the sink/counter in the main part of the room.  Easy walk to nearby restaurant for dinner.  Quick access to/from 14 freeway.  Really disliked the breakfast offerings at this location.  The food was extremely bland.  While it appeared to offer the same type of breakfast bar selections that other hotel chains provide, it was not of the quality I've come to expect at most hotels.  We opted to dine at a Denny's the second morning.  Hotel staff was fine, but not particularly welcoming or outgoing.More</t>
   </si>
   <si>
+    <t>Jay C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r179458417-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1484,6 +1652,9 @@
     <t>I was absolutely happy with this place, especially for the price.!!!I have spent twice as much and got half as good of spot.My summers are nonstop hotel stays, 100 + per year.I would have 5-stared this place if not for the location.The area is a bit dodgy, but I was not worried, but everyone has different comfort levels.For me the comfort of the room was what matters and it was perfect!!! I will be back,Staff was super friendly, no issues at all, fast wi-fi. My first review, on Trip Advisor, but I have 200+ reviews on Yelp Jay C Renothis is not a fakeMore</t>
   </si>
   <si>
+    <t>Joe G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r177965111-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1508,6 +1679,9 @@
     <t>We stay here during the week for work, This hotel is clean and fresh the staff is so attentive, they make your stay so comfortable. The service is great, over all I would recommend this hotel, As always Esther Medrano receives us with great pleasure and always has our rooms ready. THANKS ESTHER MEDRANO for a pleasant stay.More</t>
   </si>
   <si>
+    <t>spacechild</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r177464898-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1526,6 +1700,9 @@
     <t>We stayed here for 5 nights while visiting our daughter and found this hotel comfortable, clean and has wonderful service. Esther at the front desk was wonderful and the staff of the breakfast area so helpful. She greeted us with a smile every morning.More</t>
   </si>
   <si>
+    <t>James B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r175639885-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1553,6 +1730,9 @@
     <t>The hotel was clean and the room smelt fresh and clean. Bedding was comfortable and the front desk was excellent and helpful. Breakfast was good and fresh. Complimentary water in the room, nice touch.More</t>
   </si>
   <si>
+    <t>Allison S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r173094085-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1575,6 +1755,9 @@
   </si>
   <si>
     <t>I was a guest last month. I must say that every time I have stayed here I have been pleased. Except for this time.  I overheard one of the girls at the desk talking outside about the old manager and the new manager, and the housekeeping being Latina and not speaking English , this was both a surprise and a disappointment as I am a Latina myself. It was unprofessional to say the least even when she spoke badly about the owner.  I will not be returning to this hotel, because I can't imagine staying where the management allows such unprofessional behavior.More</t>
+  </si>
+  <si>
+    <t>cheezits</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r172304915-Comfort_Inn_Suites-Lancaster_California.html</t>
@@ -1609,6 +1792,9 @@
 #3.  Several of the workout machines were broken and this was a big deal to me since I have been trying to keep up an exercise regimen and diet regimen.  The...We had stayed at the Comfort Inn in Lancaster once before, so we decided to try it again. Everyone working there was friendly and helpful. I really liked our room. We rented a one bedroom suite.  However, we had several problems that added up and we decided next year we will stay at one of the other hotels on this street. As it turned out, I had actually made my reservations with the Oxford Inn and gotten confused as to where I had made my reservation this time around. Fortunately, there were so many people wanting to stay at the Oxford Inn I was not charged for canceling my reservation. Here were my problems with the Comfort Inn:#1.  The mattress was so hard I woke up with so much pain in my hip I had to take Motrin. That may not sound like much to you, but anybody who knows me knows I don't take medication for pain. I ended up sleeping on the couch. My husband slept in the bed and ate Motrin for the rest of our stay.  #2.  There was a dead bird on the balcony. It wasn't the biggest deal because we didn't really use the balcony, but still, it shouldn't have been there.#3.  Several of the workout machines were broken and this was a big deal to me since I have been trying to keep up an exercise regimen and diet regimen.  The treadmill didn't work at all. The stairstepper (if you want to call the flimsy piece of equipment a stairstepper) didn't work properly. The hydraulics or whatever they are called didn't work. The stationery bike didn't work that well either. So, I just made a point of using the stairs as much as I could.  Still, of course, this was not enough exercise since I was only on the second floor.. #4.  The food for breakfast was not very good. I knew I wouldn't be eating the food and brought my own. I started eating organic foods at the beginning of the year, so my choices are pretty limited. I understand that and carry my own foods with me. My husband has no such qualms and will eat just about everything without complaint. Not this time around. He had several complaints about the meats and the eggs and the coffee. He ended up just eating the yogurts for breakfast. He was pretty disappointed.#5.  We had some problems with our microwave, but Mike, the maintenance guy, came and switched it out for us.#6.  We wanted a late check out. When we came back to the hotel the night before our checkout we asked about a late check out. The guy behind the desk said we could check out at 1 pm because we were Choice Rewards members.  In the morning I went downstairs to see if we could get one more hour and check out at 2. I was told we could not check out late because the housekeepers had to be off by noon. I have to admit to being very irritated by this. We were late for our meeting because we had to pack up and load the car before going out again. Frustrating.I do have to say I loved our room. It was room 214 which is located right above the lobby.  It was a great room. If the mattress was more comfortable, the fitness room in working order, and the food more palatable I would reconsider staying at the Comfort Inn. Every employee we dealt with was friendly and helpful. I just don't want to chance having a horrible mattress and broken exercise equipment.More</t>
   </si>
   <si>
+    <t>chrislaflmme</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r171248506-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1627,6 +1813,9 @@
     <t>I have had an excellent stay. They work hard to accomadate all of my need while i was here. Ms. Esther Medrano as well as all the others working front desk exceeds there job description. Thank you comfort inn for a wonderful stay.More</t>
   </si>
   <si>
+    <t>Bill M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r170895752-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1654,6 +1843,9 @@
     <t>Esther made the 6 day stay at this hotel enjoyable in another otherwise boring work week at Edwards AFB.  Esthers attention to our concerns and travel problems made it a real pleasure to come back to the hotel every night.  I travel extensivly and the Comfort Inn, Lancaster due to the customer service I received from Esther and the other staff members during my stay has all of the expensive hotels beat hands down.  I can recommend this place to everyone.Bill M.  Arlington, Texas.More</t>
   </si>
   <si>
+    <t>Forrest S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r170443757-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1672,6 +1864,9 @@
     <t>Just had to write a review for this hotel. Wonderful service from each staff member on every shift. Attention to detail just excellent. Rooms are comfortable and just right for me. I'm a business traveler and can choose the expensive hotels. This one has those beat in customer service for me. Esther is a good ambassador for the hotel as is all the employees who have served me well.ForrestLong Beach, CAMore</t>
   </si>
   <si>
+    <t>Dick99000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r159917025-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1699,6 +1894,9 @@
     <t>The Inn is immediately off the Freeway, but the 3rd floor room with carpeted hallways was so quiet we heard no external noises inside or out.  The room was large and clean throughout.  But what impressed us were the extra touches.  For example.  The big basket of oranges on the check-in desk and the decorative fountain in the lobby. We didn't take any fruit, but it was an inviting ambiance.  The slate floor and matching decorative tile in the bathtub/shower, with ceramic tub.  No prefab fiberglass.  The Queen Anne style furniture with a desk, a card table, with 2 desk chairs and 2 arm chairs.  No need to sit on the bed.  The separation of toilet/shower and wash/dressing areas with automatic/touch light controls and night light.  Thoughtfulness rather construction-cost considerations are evident.Wireless connection was easy and reception excellent.  Free breakfast included commercial coffee-shop range of choices.We would certainly stay here again if spending time anywhere in the Antelope Valley.More</t>
   </si>
   <si>
+    <t>MH86314</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r157920775-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1723,6 +1921,9 @@
     <t>First of all, I want to say that the rooms are nice, clean, and well appointed for the price range.  My problem with this hotel was the rude treatment I received upon check in.  It seemed like I interrupted the young man's night when I showed up a little after 8 pm.  The disinterested employee gave short and vague answers to the questions I posed about the accommodations.  The rest of the staff has been pleasant and helpful.More</t>
   </si>
   <si>
+    <t>RDRca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r157241588-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1747,6 +1948,9 @@
     <t>Though Lancaster, CA is not on most people's must see list, I can recommend this place if you find yourself there. It has one if the better breakfasts included, rooms are clean and well appointed, staff is incredibly friendly and helpful, and every room is available to dogs. The latter is important for me. It's biggest downside is location: on the edge of town next to the freeway, but the noise has never been a problem. I've stated at other places in Lancaster, and for the money, you can't get a better deal,More</t>
   </si>
   <si>
+    <t>Emilio D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r146152412-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1774,6 +1978,9 @@
     <t>Esther at the front desk has good customer service, Helped me sign up for the choice awards program. She also assisted me with staying over another night. I was not sure exactly how long I would need the room and she talked me into staying again. kudos to EstherMore</t>
   </si>
   <si>
+    <t>mxems</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r146150194-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1789,6 +1996,9 @@
     <t>My wife and I stay at the comfort in at least once a month and we are greated by name when we check in. The staff is friendly and helpfull. The rooms are clean and comfortable. We have enjoyed the pool/jaccuzzi a few times and the grounds are clean and secure. We like to get up and have a free breakfast which includes scrambled eggs, potatoes, sausage, waffles, etc. Upon checkout, Esther is usually at the desk to great us and help with checkout. All in all, this hotel is clean, safe, and comfortable. We will continue to stay in the future.More</t>
   </si>
   <si>
+    <t>Stephen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r139566896-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1813,6 +2023,9 @@
     <t>My stay at Comfort Inn Lancaster was the best. As Front Desk Agent, Esther was extremly helpful with my extended stay. I was not sure how long I would be staying, so Esther made the reservation holds as I needed, then processed them as I indeed stayed those nights. Seeing the smile on her face early in the morning as I went for breakfast definately started my day on a bright note. Thank you Esther and all the staff.More</t>
   </si>
   <si>
+    <t>Nvgaurav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r123124852-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1828,6 +2041,9 @@
     <t>Was there with my family and was a pleasure to stay in a hotel. True value for money.Thanks to all staff.</t>
   </si>
   <si>
+    <t>sandi003d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r121987290-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1846,6 +2062,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>JB694</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r121963043-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1861,6 +2080,9 @@
     <t>Warm welcome as you come into the lobby. Service was great. The check in was easy and fast. The rooms clean and relaxing. The beds were perfect. Breakfast was awesome. It is a very nice place to stay.</t>
   </si>
   <si>
+    <t>Carlosd808</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r120346308-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1873,6 +2095,9 @@
     <t xml:space="preserve">I was pleased with the room and the breakfast the bed was very nice could use a flat screen in the room for updates but all and all the desk service was awsome,it's also close to the post office,motorcycle shop and other resteraunts </t>
   </si>
   <si>
+    <t>courtney j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r116982442-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1894,6 +2119,9 @@
     <t>I stay at this Comfort Inn quite often, and I can't say enough about how friendly everyone is, and how helpful.  I usually get a Jacuzzi suite, and they're always spotless and well turned-out; when I stay in a "regular" room, it's the same.  The fact is that I am a repeat customer because of the standard of service that I experienced when I started staying at this Comfort Inn years ago, and now it is my home-away-from home when I am in the Lancaster area. Mu only complaint: you need automatic doors into the lobby (I've always got suitcases and it's very hard to pull the doors toward you!)  Other than that...top notch.More</t>
   </si>
   <si>
+    <t>Hellopaul</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r116718452-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1930,6 +2158,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>jdgray224</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r115088019-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1945,6 +2176,9 @@
     <t>The hotel staff is great. They do an excellent job of taking care of their guest. The hotel is well taken care of and the rooms are clean. Great place to stay. The hot breakfast are a great touch. I would definitely recommend this hotel on your next trip.</t>
   </si>
   <si>
+    <t>yosoycubano1954</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r114998979-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1960,6 +2194,9 @@
     <t>The whole staff is really helpful. They have made an effort to know us and know our likes, and always try to go the extra effort to make our stay more confortable.</t>
   </si>
   <si>
+    <t>WanderLustration</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r105503872-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1981,6 +2218,9 @@
     <t>I've stayed here at the Comfort Inn on over 200 occasions in the past 2 1/2 years. I've had no need, desire or reason to go to any other of the many choices for hotels in the Antelope Valley (Palmdale / Lancaster). Rooms are VERY clean (very important to my germaphobe-self), the beds are comfy (5 pillows per bed!) and the hotel staff are incredible (very friendly and helpful). I've only had experiences with one other hotel in the area (which was ho-hum, to say the least), so my review does have its limits, but if you don't want to take chances (especially if you're on vacation), I highly recommend staying here.More</t>
   </si>
   <si>
+    <t>bocaloca3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r104214906-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -1996,6 +2236,9 @@
     <t>The front desk staff were friendly and professional. The room was always stocked and the upkeep was great.</t>
   </si>
   <si>
+    <t>PasCaLady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r62792856-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -2014,6 +2257,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>brianharris47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r51683176-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -2041,6 +2287,9 @@
     <t>My wife and I went to this hotel for a nice little getaway from the city. I really don't know what the previous post was talking about because the hotel is wonderful. I'm a VERY clean person and the type who does not like staying at certain places. However, this place is very clean, decent price, helpful/friendly staff, private, healthy breakfast, warm cookies, workout room, quiet, and nothing was wrong with the ventilation or ac. I tried the hampton and this one is definately better. Anyway this hotel gets a two thumbs up.More</t>
   </si>
   <si>
+    <t>MzLiberty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r42879336-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -2062,6 +2311,9 @@
     <t>It was a really hot day (well over 90) and there was no air conditioning. There was a vent for it but no air coming out and not controls in the room. The towels were like the ones I use when I give my dog a bath, or maybe worse. We visited friends in another hotel in the same area and their hotel, Hampton Inn, was like night and day better than this one. Go there instead, same price for real luxury instead of real crummy.More</t>
   </si>
   <si>
+    <t>y2k1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r24154929-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -2083,6 +2335,9 @@
     <t>Our friends stayed here and we stayed next door - they loved it and we loved hanging there with them.  Nice people - great breakfast and warm cookies at night.  Oxford inn tried to scam us so we dorve here and they were fantastic!More</t>
   </si>
   <si>
+    <t>darlenmm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r12451027-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -2110,6 +2365,9 @@
     <t>I chose this hotel because the Antelope Valley bus from LAX leaves you right in front of it. The hotel is located conveniently off highway 14 and has even many places to eat within walking distance. We felt the room was very clean. Everything looked brand new. My only complaint was the limited healthy choices for breakfast. The staff was extremely helpful and very friendly. I would stay again.DMM - Long Island NYMore</t>
   </si>
   <si>
+    <t>Edrosen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r8444275-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -2131,6 +2389,9 @@
     <t>Most courteous and obliging staff I've ever seen.  I recently had the need to travel to the Lancaster, ca. area and at the advice of a friend stayed at this most delightful property.  I found the staff very obliging of my every request and was especially pleased to find the manager on the property and actively engaged in helping guests in the evening hours when most hotels are staffed by part timers.  The room was the cleanest I've ever stayed in. There weren't even water spots on the shower curtain rod. The parking area was well lighted and even though the wind was blowing, there wasn't one bit of trash to be found anywhere in the parking area or in the bushes or anywhere on the property. The hallways were spotless and the breakfast area was cleaner than the restaurants that we ate at in the area. I would highly recommend this hotel to anyone who cares about their comfort and personal safety.More</t>
   </si>
   <si>
+    <t>dorrettab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r5294104-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -2149,6 +2410,9 @@
     <t>We stayed one night-- never again!  While the hotel was clean and the staff were friendly and helpful, the accomodations left much to be desired.  We're not picky, but the bed was the hardest bed we've ever slept in, the pillows were flat, and the towels were like sandpaper!  If you can look past these things, then the hotel was fine.The hotel was clean, our room had good furniture and appliances (TV, Fridge, Microwave, etc.) and the bathroom was clean.  The breakfast was adequate and well-stocked.  There was no way we would have stayed another night.  Sleeping and showering are too important, and those two things were both horrible.  If you don't mind a rock-hard mattress or sandpaper towels, then you probably won't want to miss staying at  this hotel.  But you've been warned...More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r3433583-Comfort_Inn_Suites-Lancaster_California.html</t>
   </si>
   <si>
@@ -2165,6 +2429,9 @@
   </si>
   <si>
     <t>February 2005</t>
+  </si>
+  <si>
+    <t>FernandoBee</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d250120-r3272685-Comfort_Inn_Suites-Lancaster_California.html</t>
@@ -2687,43 +2954,47 @@
       <c r="A2" t="n">
         <v>39243</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>29589</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2735,56 +3006,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39243</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>131016</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2804,50 +3079,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39243</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>131017</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2861,41 +3140,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39243</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>131018</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
@@ -2914,50 +3197,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39243</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>44632</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2977,50 +3264,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39243</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>131019</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -3038,47 +3329,51 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>39243</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>131020</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
@@ -3097,50 +3392,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39243</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>131021</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3152,47 +3451,51 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39243</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>131022</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
@@ -3209,56 +3512,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="X10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>39243</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>131023</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -3276,56 +3583,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39243</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>78716</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3337,56 +3648,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="X12" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39243</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>131024</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3398,56 +3713,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="X13" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>39243</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>131025</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3463,56 +3782,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="X14" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>39243</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>131026</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3524,56 +3847,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="X15" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>39243</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>131027</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="O16" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3589,56 +3916,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="X16" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>39243</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>131028</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3656,56 +3987,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="X17" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>39243</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>131029</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3717,56 +4052,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>39243</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>39739</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3780,50 +4119,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>39243</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>32341</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3843,50 +4186,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>39243</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>131030</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>185</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>186</v>
-      </c>
-      <c r="J21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K21" t="s">
-        <v>188</v>
-      </c>
-      <c r="L21" t="s">
-        <v>189</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>168</v>
-      </c>
       <c r="O21" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3898,56 +4245,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="X21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="Y21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>39243</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>131031</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3963,56 +4314,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="X22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>39243</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>131032</v>
+      </c>
+      <c r="C23" t="s">
+        <v>222</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
+        <v>224</v>
+      </c>
+      <c r="J23" t="s">
+        <v>225</v>
+      </c>
+      <c r="K23" t="s">
+        <v>226</v>
+      </c>
+      <c r="L23" t="s">
+        <v>227</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>202</v>
       </c>
-      <c r="J23" t="s">
-        <v>203</v>
-      </c>
-      <c r="K23" t="s">
-        <v>204</v>
-      </c>
-      <c r="L23" t="s">
-        <v>205</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>183</v>
-      </c>
       <c r="O23" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4028,56 +4383,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="X23" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>39243</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>131033</v>
+      </c>
+      <c r="C24" t="s">
+        <v>229</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="J24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="O24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -4095,56 +4454,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="X24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>39243</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>131034</v>
+      </c>
+      <c r="C25" t="s">
+        <v>240</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4162,56 +4525,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="X25" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>39243</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>22459</v>
+      </c>
+      <c r="C26" t="s">
+        <v>249</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4223,56 +4590,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="X26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="Y26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>39243</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>131035</v>
+      </c>
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="J27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4290,56 +4661,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="X27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="Y27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>39243</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>131036</v>
+      </c>
+      <c r="C28" t="s">
+        <v>268</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="J28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="K28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4355,56 +4730,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="X28" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="Y28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>39243</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>131037</v>
+      </c>
+      <c r="C29" t="s">
+        <v>275</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="J29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="K29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="O29" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4422,56 +4801,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="X29" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="Y29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>39243</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>99370</v>
+      </c>
+      <c r="C30" t="s">
+        <v>282</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="J30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="K30" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4483,56 +4866,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="X30" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="Y30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>39243</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>131038</v>
+      </c>
+      <c r="C31" t="s">
+        <v>289</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="J31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="K31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="L31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4544,56 +4931,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="X31" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="Y31" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>39243</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>131039</v>
+      </c>
+      <c r="C32" t="s">
+        <v>296</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="J32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4609,56 +5000,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="X32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="Y32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>39243</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>86009</v>
+      </c>
+      <c r="C33" t="s">
+        <v>306</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="J33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="K33" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="O33" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4670,56 +5065,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="X33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="Y33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>39243</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>131040</v>
+      </c>
+      <c r="C34" t="s">
+        <v>316</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="J34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="K34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="L34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="O34" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4731,47 +5130,51 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="X34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="Y34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>39243</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>27040</v>
+      </c>
+      <c r="C35" t="s">
+        <v>325</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="J35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
@@ -4788,56 +5191,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="Y35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>39243</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>131041</v>
+      </c>
+      <c r="C36" t="s">
+        <v>334</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="J36" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="K36" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4849,47 +5256,51 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="X36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="Y36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>39243</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>41963</v>
+      </c>
+      <c r="C37" t="s">
+        <v>344</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="J37" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="K37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="L37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
@@ -4906,56 +5317,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="X37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="Y37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>39243</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>131042</v>
+      </c>
+      <c r="C38" t="s">
+        <v>353</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="J38" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="K38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="L38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="O38" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4971,56 +5386,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="X38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="Y38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>39243</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>131043</v>
+      </c>
+      <c r="C39" t="s">
+        <v>363</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="J39" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="K39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="L39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="O39" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5036,56 +5455,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="X39" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="Y39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>39243</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>131044</v>
+      </c>
+      <c r="C40" t="s">
+        <v>370</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="J40" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="K40" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="L40" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="O40" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5097,56 +5520,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="X40" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="Y40" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>39243</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>86353</v>
+      </c>
+      <c r="C41" t="s">
+        <v>377</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="J41" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K41" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="L41" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5164,56 +5591,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="X41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="Y41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>39243</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>131045</v>
+      </c>
+      <c r="C42" t="s">
+        <v>387</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="J42" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="K42" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="L42" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="O42" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5229,56 +5660,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="X42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="Y42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>39243</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>131046</v>
+      </c>
+      <c r="C43" t="s">
+        <v>397</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="J43" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="K43" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="L43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="O43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5296,56 +5731,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="X43" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="Y43" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>39243</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>7478</v>
+      </c>
+      <c r="C44" t="s">
+        <v>406</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="J44" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="K44" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="L44" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="O44" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5361,56 +5800,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="X44" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="Y44" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>39243</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>13807</v>
+      </c>
+      <c r="C45" t="s">
+        <v>416</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="J45" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="K45" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="L45" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="O45" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5426,56 +5869,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="X45" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="Y45" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>39243</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>32341</v>
+      </c>
+      <c r="C46" t="s">
+        <v>196</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="J46" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="K46" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="L46" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5493,47 +5940,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="X46" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="Y46" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>39243</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>131047</v>
+      </c>
+      <c r="C47" t="s">
+        <v>431</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="J47" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="K47" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="L47" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
@@ -5560,47 +6011,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="X47" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="Y47" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>39243</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>2422</v>
+      </c>
+      <c r="C48" t="s">
+        <v>440</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="J48" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="K48" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="L48" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -5627,56 +6082,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="X48" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="Y48" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>39243</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>17864</v>
+      </c>
+      <c r="C49" t="s">
+        <v>446</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="J49" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="K49" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="L49" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="O49" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5698,56 +6157,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="X49" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="Y49" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>39243</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>131048</v>
+      </c>
+      <c r="C50" t="s">
+        <v>454</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="J50" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="K50" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="L50" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5769,56 +6232,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="X50" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="Y50" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>39243</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>8110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>464</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="J51" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="K51" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="L51" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="O51" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5840,56 +6307,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="X51" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="Y51" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>39243</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>488</v>
+      </c>
+      <c r="C52" t="s">
+        <v>471</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="J52" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="K52" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="L52" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="O52" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5903,56 +6374,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="X52" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="Y52" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>39243</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>131049</v>
+      </c>
+      <c r="C53" t="s">
+        <v>481</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="J53" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="K53" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="L53" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5974,56 +6449,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="X53" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="Y53" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>39243</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>12776</v>
+      </c>
+      <c r="C54" t="s">
+        <v>490</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="J54" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="K54" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="L54" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="O54" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6045,56 +6524,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="X54" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="Y54" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>39243</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>131050</v>
+      </c>
+      <c r="C55" t="s">
+        <v>499</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="J55" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="K55" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="L55" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="O55" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6116,56 +6599,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="X55" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="Y55" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>39243</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>131051</v>
+      </c>
+      <c r="C56" t="s">
+        <v>506</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="J56" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="K56" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="L56" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6179,56 +6666,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="X56" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="Y56" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>39243</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>32341</v>
+      </c>
+      <c r="C57" t="s">
+        <v>196</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="J57" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="K57" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="L57" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6250,56 +6741,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="X57" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="Y57" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>39243</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>131052</v>
+      </c>
+      <c r="C58" t="s">
+        <v>525</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="J58" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="K58" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="L58" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6321,56 +6816,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="X58" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="Y58" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>39243</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>67158</v>
+      </c>
+      <c r="C59" t="s">
+        <v>534</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="J59" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="K59" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="L59" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="O59" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6392,56 +6891,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="X59" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Y59" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>39243</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>6736</v>
+      </c>
+      <c r="C60" t="s">
+        <v>544</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="J60" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="K60" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="L60" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="O60" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6463,56 +6966,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="X60" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="Y60" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>39243</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>131053</v>
+      </c>
+      <c r="C61" t="s">
+        <v>553</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="J61" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="K61" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="L61" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6534,56 +7041,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="X61" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="Y61" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>39243</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>7151</v>
+      </c>
+      <c r="C62" t="s">
+        <v>560</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="J62" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="K62" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="L62" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="O62" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6605,56 +7116,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="X62" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="Y62" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>39243</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>24479</v>
+      </c>
+      <c r="C63" t="s">
+        <v>570</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="J63" t="s">
-        <v>513</v>
+        <v>573</v>
       </c>
       <c r="K63" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="L63" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="O63" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="n">
@@ -6674,56 +7189,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="X63" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="Y63" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>39243</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>131054</v>
+      </c>
+      <c r="C64" t="s">
+        <v>579</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="J64" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="K64" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
       <c r="L64" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="O64" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6745,47 +7264,51 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="X64" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="Y64" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>39243</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>131055</v>
+      </c>
+      <c r="C65" t="s">
+        <v>588</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="J65" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="K65" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="L65" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
@@ -6812,56 +7335,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="X65" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="Y65" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>39243</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>9132</v>
+      </c>
+      <c r="C66" t="s">
+        <v>595</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="J66" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="K66" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="L66" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="O66" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6883,56 +7410,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="X66" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="Y66" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>39243</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>57152</v>
+      </c>
+      <c r="C67" t="s">
+        <v>605</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
       <c r="J67" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="K67" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="L67" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="O67" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6954,56 +7485,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="X67" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="Y67" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>39243</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>131056</v>
+      </c>
+      <c r="C68" t="s">
+        <v>612</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>549</v>
+        <v>614</v>
       </c>
       <c r="J68" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="K68" t="s">
-        <v>551</v>
+        <v>616</v>
       </c>
       <c r="L68" t="s">
-        <v>552</v>
+        <v>617</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="O68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7025,56 +7560,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="X68" t="s">
-        <v>555</v>
+        <v>620</v>
       </c>
       <c r="Y68" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>39243</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>131057</v>
+      </c>
+      <c r="C69" t="s">
+        <v>622</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>558</v>
+        <v>624</v>
       </c>
       <c r="J69" t="s">
-        <v>559</v>
+        <v>625</v>
       </c>
       <c r="K69" t="s">
-        <v>560</v>
+        <v>626</v>
       </c>
       <c r="L69" t="s">
-        <v>561</v>
+        <v>627</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7096,47 +7635,51 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
       <c r="X69" t="s">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="Y69" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>39243</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>131058</v>
+      </c>
+      <c r="C70" t="s">
+        <v>631</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>566</v>
+        <v>633</v>
       </c>
       <c r="J70" t="s">
-        <v>567</v>
+        <v>634</v>
       </c>
       <c r="K70" t="s">
-        <v>568</v>
+        <v>635</v>
       </c>
       <c r="L70" t="s">
-        <v>569</v>
+        <v>636</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
@@ -7163,56 +7706,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="X70" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="Y70" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>39243</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>131059</v>
+      </c>
+      <c r="C71" t="s">
+        <v>640</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>573</v>
+        <v>641</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>574</v>
+        <v>642</v>
       </c>
       <c r="J71" t="s">
-        <v>575</v>
+        <v>643</v>
       </c>
       <c r="K71" t="s">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="L71" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="O71" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7234,47 +7781,51 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="X71" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="Y71" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>39243</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>131060</v>
+      </c>
+      <c r="C72" t="s">
+        <v>650</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>582</v>
+        <v>651</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>583</v>
+        <v>652</v>
       </c>
       <c r="J72" t="s">
-        <v>575</v>
+        <v>643</v>
       </c>
       <c r="K72" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="L72" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
@@ -7301,47 +7852,51 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="X72" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="Y72" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>39243</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>33890</v>
+      </c>
+      <c r="C73" t="s">
+        <v>656</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>588</v>
+        <v>658</v>
       </c>
       <c r="J73" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="K73" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="L73" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
@@ -7358,47 +7913,51 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="X73" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="Y73" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>39243</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>131061</v>
+      </c>
+      <c r="C74" t="s">
+        <v>665</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="J74" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="K74" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="L74" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
@@ -7427,50 +7986,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>39243</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>131062</v>
+      </c>
+      <c r="C75" t="s">
+        <v>671</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="J75" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="K75" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="L75" t="s">
-        <v>604</v>
+        <v>676</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7494,50 +8057,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>604</v>
+        <v>676</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>39243</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>131063</v>
+      </c>
+      <c r="C76" t="s">
+        <v>678</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>606</v>
+        <v>679</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>607</v>
+        <v>680</v>
       </c>
       <c r="J76" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
       <c r="K76" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
       <c r="L76" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="O76" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7561,41 +8128,45 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>39243</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>131064</v>
+      </c>
+      <c r="C77" t="s">
+        <v>684</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>611</v>
+        <v>685</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>612</v>
+        <v>686</v>
       </c>
       <c r="J77" t="s">
-        <v>613</v>
+        <v>687</v>
       </c>
       <c r="K77" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="L77" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
@@ -7624,50 +8195,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>39243</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>131065</v>
+      </c>
+      <c r="C78" t="s">
+        <v>689</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>616</v>
+        <v>691</v>
       </c>
       <c r="J78" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
       <c r="K78" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="L78" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="O78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7687,50 +8262,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>39243</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>131066</v>
+      </c>
+      <c r="C79" t="s">
+        <v>697</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="J79" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="K79" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="L79" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="O79" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7750,50 +8329,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>39243</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>131061</v>
+      </c>
+      <c r="C80" t="s">
+        <v>671</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="J80" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
       <c r="K80" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
       <c r="L80" t="s">
-        <v>632</v>
+        <v>708</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7813,50 +8396,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>632</v>
+        <v>708</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>39243</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>131067</v>
+      </c>
+      <c r="C81" t="s">
+        <v>710</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="J81" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="K81" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
       <c r="L81" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="O81" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7876,50 +8463,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>39243</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>131068</v>
+      </c>
+      <c r="C82" t="s">
+        <v>716</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="J82" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="K82" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="L82" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="O82" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7939,50 +8530,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>39243</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>131069</v>
+      </c>
+      <c r="C83" t="s">
+        <v>722</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="J83" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
       <c r="K83" t="s">
-        <v>647</v>
+        <v>726</v>
       </c>
       <c r="L83" t="s">
-        <v>648</v>
+        <v>727</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="O83" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8006,50 +8601,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>39243</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>131070</v>
+      </c>
+      <c r="C84" t="s">
+        <v>730</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>651</v>
+        <v>731</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>652</v>
+        <v>732</v>
       </c>
       <c r="J84" t="s">
-        <v>653</v>
+        <v>733</v>
       </c>
       <c r="K84" t="s">
-        <v>654</v>
+        <v>734</v>
       </c>
       <c r="L84" t="s">
-        <v>655</v>
+        <v>735</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="O84" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8073,50 +8672,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>655</v>
+        <v>735</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>39243</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>96275</v>
+      </c>
+      <c r="C85" t="s">
+        <v>736</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
       <c r="J85" t="s">
-        <v>658</v>
+        <v>739</v>
       </c>
       <c r="K85" t="s">
-        <v>659</v>
+        <v>740</v>
       </c>
       <c r="L85" t="s">
-        <v>660</v>
+        <v>741</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>661</v>
+        <v>742</v>
       </c>
       <c r="O85" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8140,50 +8743,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>660</v>
+        <v>741</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>39243</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>131071</v>
+      </c>
+      <c r="C86" t="s">
+        <v>743</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
       <c r="J86" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="K86" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="L86" t="s">
-        <v>666</v>
+        <v>748</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>667</v>
+        <v>749</v>
       </c>
       <c r="O86" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8205,56 +8812,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>668</v>
+        <v>750</v>
       </c>
       <c r="X86" t="s">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="Y86" t="s">
-        <v>670</v>
+        <v>752</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>39243</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>131072</v>
+      </c>
+      <c r="C87" t="s">
+        <v>753</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>671</v>
+        <v>754</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>672</v>
+        <v>755</v>
       </c>
       <c r="J87" t="s">
-        <v>673</v>
+        <v>756</v>
       </c>
       <c r="K87" t="s">
-        <v>674</v>
+        <v>757</v>
       </c>
       <c r="L87" t="s">
-        <v>675</v>
+        <v>758</v>
       </c>
       <c r="M87" t="n">
         <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>676</v>
+        <v>759</v>
       </c>
       <c r="O87" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P87" t="n">
         <v>1</v>
@@ -8276,56 +8887,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>668</v>
+        <v>750</v>
       </c>
       <c r="X87" t="s">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="Y87" t="s">
-        <v>677</v>
+        <v>760</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>39243</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>131073</v>
+      </c>
+      <c r="C88" t="s">
+        <v>761</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>678</v>
+        <v>762</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>679</v>
+        <v>763</v>
       </c>
       <c r="J88" t="s">
-        <v>680</v>
+        <v>764</v>
       </c>
       <c r="K88" t="s">
-        <v>681</v>
+        <v>765</v>
       </c>
       <c r="L88" t="s">
-        <v>682</v>
+        <v>766</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>683</v>
+        <v>767</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8347,56 +8962,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>668</v>
+        <v>750</v>
       </c>
       <c r="X88" t="s">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="Y88" t="s">
-        <v>684</v>
+        <v>768</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>39243</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>131074</v>
+      </c>
+      <c r="C89" t="s">
+        <v>769</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>685</v>
+        <v>770</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>686</v>
+        <v>771</v>
       </c>
       <c r="J89" t="s">
-        <v>687</v>
+        <v>772</v>
       </c>
       <c r="K89" t="s">
-        <v>688</v>
+        <v>773</v>
       </c>
       <c r="L89" t="s">
-        <v>689</v>
+        <v>774</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>690</v>
+        <v>775</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8418,56 +9037,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>691</v>
+        <v>776</v>
       </c>
       <c r="X89" t="s">
-        <v>692</v>
+        <v>777</v>
       </c>
       <c r="Y89" t="s">
-        <v>693</v>
+        <v>778</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>39243</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>131075</v>
+      </c>
+      <c r="C90" t="s">
+        <v>779</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>694</v>
+        <v>780</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>695</v>
+        <v>781</v>
       </c>
       <c r="J90" t="s">
-        <v>696</v>
+        <v>782</v>
       </c>
       <c r="K90" t="s">
-        <v>697</v>
+        <v>783</v>
       </c>
       <c r="L90" t="s">
-        <v>698</v>
+        <v>784</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>699</v>
+        <v>785</v>
       </c>
       <c r="O90" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8491,41 +9114,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>700</v>
+        <v>786</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>39243</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>131076</v>
+      </c>
+      <c r="C91" t="s">
+        <v>787</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>701</v>
+        <v>788</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>702</v>
+        <v>789</v>
       </c>
       <c r="J91" t="s">
-        <v>703</v>
+        <v>790</v>
       </c>
       <c r="K91" t="s">
-        <v>704</v>
+        <v>791</v>
       </c>
       <c r="L91" t="s">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="M91" t="n">
         <v>2</v>
@@ -8552,50 +9179,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>706</v>
+        <v>793</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>39243</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>794</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
       <c r="J92" t="s">
-        <v>709</v>
+        <v>797</v>
       </c>
       <c r="K92" t="s">
-        <v>710</v>
+        <v>798</v>
       </c>
       <c r="L92" t="s">
-        <v>711</v>
+        <v>799</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>712</v>
+        <v>800</v>
       </c>
       <c r="O92" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P92" t="n">
         <v>2</v>
@@ -8617,50 +9248,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>711</v>
+        <v>799</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>39243</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>131077</v>
+      </c>
+      <c r="C93" t="s">
+        <v>801</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>713</v>
+        <v>802</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>714</v>
+        <v>803</v>
       </c>
       <c r="J93" t="s">
-        <v>715</v>
+        <v>804</v>
       </c>
       <c r="K93" t="s">
-        <v>716</v>
+        <v>805</v>
       </c>
       <c r="L93" t="s">
-        <v>717</v>
+        <v>806</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>718</v>
+        <v>807</v>
       </c>
       <c r="O93" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8682,7 +9317,7 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>717</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_120.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_120.xlsx
@@ -3020,7 +3020,7 @@
         <v>39243</v>
       </c>
       <c r="B3" t="n">
-        <v>131016</v>
+        <v>161763</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3087,7 +3087,7 @@
         <v>39243</v>
       </c>
       <c r="B4" t="n">
-        <v>131017</v>
+        <v>161764</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -3148,7 +3148,7 @@
         <v>39243</v>
       </c>
       <c r="B5" t="n">
-        <v>131018</v>
+        <v>161765</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -3272,7 +3272,7 @@
         <v>39243</v>
       </c>
       <c r="B7" t="n">
-        <v>131019</v>
+        <v>161766</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
@@ -3343,7 +3343,7 @@
         <v>39243</v>
       </c>
       <c r="B8" t="n">
-        <v>131020</v>
+        <v>161767</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
@@ -3400,7 +3400,7 @@
         <v>39243</v>
       </c>
       <c r="B9" t="n">
-        <v>131021</v>
+        <v>161768</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
@@ -3465,7 +3465,7 @@
         <v>39243</v>
       </c>
       <c r="B10" t="n">
-        <v>131022</v>
+        <v>161769</v>
       </c>
       <c r="C10" t="s">
         <v>114</v>
@@ -3526,7 +3526,7 @@
         <v>39243</v>
       </c>
       <c r="B11" t="n">
-        <v>131023</v>
+        <v>161770</v>
       </c>
       <c r="C11" t="s">
         <v>123</v>
@@ -3662,7 +3662,7 @@
         <v>39243</v>
       </c>
       <c r="B13" t="n">
-        <v>131024</v>
+        <v>161771</v>
       </c>
       <c r="C13" t="s">
         <v>139</v>
@@ -3727,7 +3727,7 @@
         <v>39243</v>
       </c>
       <c r="B14" t="n">
-        <v>131025</v>
+        <v>161772</v>
       </c>
       <c r="C14" t="s">
         <v>147</v>
@@ -3796,7 +3796,7 @@
         <v>39243</v>
       </c>
       <c r="B15" t="n">
-        <v>131026</v>
+        <v>161773</v>
       </c>
       <c r="C15" t="s">
         <v>155</v>
@@ -3861,7 +3861,7 @@
         <v>39243</v>
       </c>
       <c r="B16" t="n">
-        <v>131027</v>
+        <v>161774</v>
       </c>
       <c r="C16" t="s">
         <v>163</v>
@@ -3930,7 +3930,7 @@
         <v>39243</v>
       </c>
       <c r="B17" t="n">
-        <v>131028</v>
+        <v>161775</v>
       </c>
       <c r="C17" t="s">
         <v>171</v>
@@ -4001,7 +4001,7 @@
         <v>39243</v>
       </c>
       <c r="B18" t="n">
-        <v>131029</v>
+        <v>161776</v>
       </c>
       <c r="C18" t="s">
         <v>179</v>
@@ -4194,7 +4194,7 @@
         <v>39243</v>
       </c>
       <c r="B21" t="n">
-        <v>131030</v>
+        <v>161777</v>
       </c>
       <c r="C21" t="s">
         <v>204</v>
@@ -4259,7 +4259,7 @@
         <v>39243</v>
       </c>
       <c r="B22" t="n">
-        <v>131031</v>
+        <v>161778</v>
       </c>
       <c r="C22" t="s">
         <v>213</v>
@@ -4328,7 +4328,7 @@
         <v>39243</v>
       </c>
       <c r="B23" t="n">
-        <v>131032</v>
+        <v>161779</v>
       </c>
       <c r="C23" t="s">
         <v>222</v>
@@ -4397,7 +4397,7 @@
         <v>39243</v>
       </c>
       <c r="B24" t="n">
-        <v>131033</v>
+        <v>161780</v>
       </c>
       <c r="C24" t="s">
         <v>229</v>
@@ -4468,7 +4468,7 @@
         <v>39243</v>
       </c>
       <c r="B25" t="n">
-        <v>131034</v>
+        <v>161781</v>
       </c>
       <c r="C25" t="s">
         <v>240</v>
@@ -4604,7 +4604,7 @@
         <v>39243</v>
       </c>
       <c r="B27" t="n">
-        <v>131035</v>
+        <v>161782</v>
       </c>
       <c r="C27" t="s">
         <v>259</v>
@@ -4675,7 +4675,7 @@
         <v>39243</v>
       </c>
       <c r="B28" t="n">
-        <v>131036</v>
+        <v>161783</v>
       </c>
       <c r="C28" t="s">
         <v>268</v>
@@ -4744,7 +4744,7 @@
         <v>39243</v>
       </c>
       <c r="B29" t="n">
-        <v>131037</v>
+        <v>161784</v>
       </c>
       <c r="C29" t="s">
         <v>275</v>
@@ -4880,7 +4880,7 @@
         <v>39243</v>
       </c>
       <c r="B31" t="n">
-        <v>131038</v>
+        <v>161785</v>
       </c>
       <c r="C31" t="s">
         <v>289</v>
@@ -4945,7 +4945,7 @@
         <v>39243</v>
       </c>
       <c r="B32" t="n">
-        <v>131039</v>
+        <v>161786</v>
       </c>
       <c r="C32" t="s">
         <v>296</v>
@@ -5079,7 +5079,7 @@
         <v>39243</v>
       </c>
       <c r="B34" t="n">
-        <v>131040</v>
+        <v>161787</v>
       </c>
       <c r="C34" t="s">
         <v>316</v>
@@ -5205,7 +5205,7 @@
         <v>39243</v>
       </c>
       <c r="B36" t="n">
-        <v>131041</v>
+        <v>161788</v>
       </c>
       <c r="C36" t="s">
         <v>334</v>
@@ -5331,7 +5331,7 @@
         <v>39243</v>
       </c>
       <c r="B38" t="n">
-        <v>131042</v>
+        <v>161789</v>
       </c>
       <c r="C38" t="s">
         <v>353</v>
@@ -5400,7 +5400,7 @@
         <v>39243</v>
       </c>
       <c r="B39" t="n">
-        <v>131043</v>
+        <v>161790</v>
       </c>
       <c r="C39" t="s">
         <v>363</v>
@@ -5469,7 +5469,7 @@
         <v>39243</v>
       </c>
       <c r="B40" t="n">
-        <v>131044</v>
+        <v>161791</v>
       </c>
       <c r="C40" t="s">
         <v>370</v>
@@ -5605,7 +5605,7 @@
         <v>39243</v>
       </c>
       <c r="B42" t="n">
-        <v>131045</v>
+        <v>161792</v>
       </c>
       <c r="C42" t="s">
         <v>387</v>
@@ -5674,7 +5674,7 @@
         <v>39243</v>
       </c>
       <c r="B43" t="n">
-        <v>131046</v>
+        <v>161793</v>
       </c>
       <c r="C43" t="s">
         <v>397</v>
@@ -5954,7 +5954,7 @@
         <v>39243</v>
       </c>
       <c r="B47" t="n">
-        <v>131047</v>
+        <v>161794</v>
       </c>
       <c r="C47" t="s">
         <v>431</v>
@@ -6171,7 +6171,7 @@
         <v>39243</v>
       </c>
       <c r="B50" t="n">
-        <v>131048</v>
+        <v>161795</v>
       </c>
       <c r="C50" t="s">
         <v>454</v>
@@ -6388,7 +6388,7 @@
         <v>39243</v>
       </c>
       <c r="B53" t="n">
-        <v>131049</v>
+        <v>161796</v>
       </c>
       <c r="C53" t="s">
         <v>481</v>
@@ -6538,7 +6538,7 @@
         <v>39243</v>
       </c>
       <c r="B55" t="n">
-        <v>131050</v>
+        <v>161797</v>
       </c>
       <c r="C55" t="s">
         <v>499</v>
@@ -6613,7 +6613,7 @@
         <v>39243</v>
       </c>
       <c r="B56" t="n">
-        <v>131051</v>
+        <v>161798</v>
       </c>
       <c r="C56" t="s">
         <v>506</v>
@@ -6755,7 +6755,7 @@
         <v>39243</v>
       </c>
       <c r="B58" t="n">
-        <v>131052</v>
+        <v>161799</v>
       </c>
       <c r="C58" t="s">
         <v>525</v>
@@ -6980,7 +6980,7 @@
         <v>39243</v>
       </c>
       <c r="B61" t="n">
-        <v>131053</v>
+        <v>161800</v>
       </c>
       <c r="C61" t="s">
         <v>553</v>
@@ -7203,7 +7203,7 @@
         <v>39243</v>
       </c>
       <c r="B64" t="n">
-        <v>131054</v>
+        <v>161801</v>
       </c>
       <c r="C64" t="s">
         <v>579</v>
@@ -7278,7 +7278,7 @@
         <v>39243</v>
       </c>
       <c r="B65" t="n">
-        <v>131055</v>
+        <v>161802</v>
       </c>
       <c r="C65" t="s">
         <v>588</v>
@@ -7499,7 +7499,7 @@
         <v>39243</v>
       </c>
       <c r="B68" t="n">
-        <v>131056</v>
+        <v>161803</v>
       </c>
       <c r="C68" t="s">
         <v>612</v>
@@ -7574,7 +7574,7 @@
         <v>39243</v>
       </c>
       <c r="B69" t="n">
-        <v>131057</v>
+        <v>161804</v>
       </c>
       <c r="C69" t="s">
         <v>622</v>
@@ -7649,7 +7649,7 @@
         <v>39243</v>
       </c>
       <c r="B70" t="n">
-        <v>131058</v>
+        <v>161805</v>
       </c>
       <c r="C70" t="s">
         <v>631</v>
@@ -7720,7 +7720,7 @@
         <v>39243</v>
       </c>
       <c r="B71" t="n">
-        <v>131059</v>
+        <v>161806</v>
       </c>
       <c r="C71" t="s">
         <v>640</v>
@@ -7795,7 +7795,7 @@
         <v>39243</v>
       </c>
       <c r="B72" t="n">
-        <v>131060</v>
+        <v>161807</v>
       </c>
       <c r="C72" t="s">
         <v>650</v>
@@ -7927,7 +7927,7 @@
         <v>39243</v>
       </c>
       <c r="B74" t="n">
-        <v>131061</v>
+        <v>161808</v>
       </c>
       <c r="C74" t="s">
         <v>665</v>
@@ -7994,7 +7994,7 @@
         <v>39243</v>
       </c>
       <c r="B75" t="n">
-        <v>131062</v>
+        <v>131042</v>
       </c>
       <c r="C75" t="s">
         <v>671</v>
@@ -8065,7 +8065,7 @@
         <v>39243</v>
       </c>
       <c r="B76" t="n">
-        <v>131063</v>
+        <v>161809</v>
       </c>
       <c r="C76" t="s">
         <v>678</v>
@@ -8136,7 +8136,7 @@
         <v>39243</v>
       </c>
       <c r="B77" t="n">
-        <v>131064</v>
+        <v>161810</v>
       </c>
       <c r="C77" t="s">
         <v>684</v>
@@ -8203,7 +8203,7 @@
         <v>39243</v>
       </c>
       <c r="B78" t="n">
-        <v>131065</v>
+        <v>161811</v>
       </c>
       <c r="C78" t="s">
         <v>689</v>
@@ -8270,7 +8270,7 @@
         <v>39243</v>
       </c>
       <c r="B79" t="n">
-        <v>131066</v>
+        <v>161812</v>
       </c>
       <c r="C79" t="s">
         <v>697</v>
@@ -8337,7 +8337,7 @@
         <v>39243</v>
       </c>
       <c r="B80" t="n">
-        <v>131061</v>
+        <v>131042</v>
       </c>
       <c r="C80" t="s">
         <v>671</v>
@@ -8404,7 +8404,7 @@
         <v>39243</v>
       </c>
       <c r="B81" t="n">
-        <v>131067</v>
+        <v>161813</v>
       </c>
       <c r="C81" t="s">
         <v>710</v>
@@ -8471,7 +8471,7 @@
         <v>39243</v>
       </c>
       <c r="B82" t="n">
-        <v>131068</v>
+        <v>161814</v>
       </c>
       <c r="C82" t="s">
         <v>716</v>
@@ -8538,7 +8538,7 @@
         <v>39243</v>
       </c>
       <c r="B83" t="n">
-        <v>131069</v>
+        <v>161815</v>
       </c>
       <c r="C83" t="s">
         <v>722</v>
@@ -8609,7 +8609,7 @@
         <v>39243</v>
       </c>
       <c r="B84" t="n">
-        <v>131070</v>
+        <v>161816</v>
       </c>
       <c r="C84" t="s">
         <v>730</v>
@@ -8751,7 +8751,7 @@
         <v>39243</v>
       </c>
       <c r="B86" t="n">
-        <v>131071</v>
+        <v>161817</v>
       </c>
       <c r="C86" t="s">
         <v>743</v>
@@ -8826,7 +8826,7 @@
         <v>39243</v>
       </c>
       <c r="B87" t="n">
-        <v>131072</v>
+        <v>161818</v>
       </c>
       <c r="C87" t="s">
         <v>753</v>
@@ -8901,7 +8901,7 @@
         <v>39243</v>
       </c>
       <c r="B88" t="n">
-        <v>131073</v>
+        <v>161819</v>
       </c>
       <c r="C88" t="s">
         <v>761</v>
@@ -8976,7 +8976,7 @@
         <v>39243</v>
       </c>
       <c r="B89" t="n">
-        <v>131074</v>
+        <v>161820</v>
       </c>
       <c r="C89" t="s">
         <v>769</v>
@@ -9051,7 +9051,7 @@
         <v>39243</v>
       </c>
       <c r="B90" t="n">
-        <v>131075</v>
+        <v>161821</v>
       </c>
       <c r="C90" t="s">
         <v>779</v>
@@ -9122,7 +9122,7 @@
         <v>39243</v>
       </c>
       <c r="B91" t="n">
-        <v>131076</v>
+        <v>161822</v>
       </c>
       <c r="C91" t="s">
         <v>787</v>
@@ -9256,7 +9256,7 @@
         <v>39243</v>
       </c>
       <c r="B93" t="n">
-        <v>131077</v>
+        <v>161823</v>
       </c>
       <c r="C93" t="s">
         <v>801</v>
